--- a/Preprocessed Data/revascularization/test_b.xlsx
+++ b/Preprocessed Data/revascularization/test_b.xlsx
@@ -855,25 +855,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2553191489361702</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="D2">
-        <v>0.1252366011928669</v>
+        <v>0.05882352941176332</v>
       </c>
       <c r="E2">
-        <v>-1.369647196554189</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="F2">
-        <v>-1.427699175495778</v>
+        <v>-1.192112419670904</v>
       </c>
       <c r="G2">
-        <v>-1.43308628682856</v>
+        <v>-0.9245283018867924</v>
       </c>
       <c r="H2">
-        <v>0.1819495687725403</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I2">
-        <v>-0.736019291667342</v>
+        <v>-0.7865168539325843</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-0.2267932598337436</v>
+        <v>-0.2290076335877863</v>
       </c>
       <c r="R2">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S2">
-        <v>0.2617105835057468</v>
+        <v>0.1875</v>
       </c>
       <c r="T2">
-        <v>0.2200204080676722</v>
+        <v>0.2247191011235954</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -963,85 +963,85 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.130970553697359</v>
+        <v>-0.1400966183574879</v>
       </c>
       <c r="AN2">
-        <v>-1.420766282583402</v>
+        <v>-1.027932960893855</v>
       </c>
       <c r="AO2">
-        <v>-1.483659562431048</v>
+        <v>-1.197831978319784</v>
       </c>
       <c r="AP2">
-        <v>-1.378270774963267</v>
+        <v>-1.319148936170213</v>
       </c>
       <c r="AQ2">
-        <v>0.04281168592263066</v>
+        <v>0.06617647058823552</v>
       </c>
       <c r="AR2">
-        <v>0.354859110632167</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="AS2">
-        <v>0.6934492647019759</v>
+        <v>0.7172413793103447</v>
       </c>
       <c r="AT2">
-        <v>0.7265412970218301</v>
+        <v>0.5650557620817844</v>
       </c>
       <c r="AU2">
-        <v>1.511228729886215</v>
+        <v>1.467692307692307</v>
       </c>
       <c r="AV2">
-        <v>-1.415914335226168</v>
+        <v>-1.243243243243243</v>
       </c>
       <c r="AW2">
-        <v>0.3194226866268416</v>
+        <v>0.241240666283745</v>
       </c>
       <c r="AX2">
-        <v>0.9154205879317543</v>
+        <v>0.7064511255476658</v>
       </c>
       <c r="AY2">
-        <v>-0.3616965041787352</v>
+        <v>-0.2756598240469206</v>
       </c>
       <c r="AZ2">
-        <v>-2.395160449340533</v>
+        <v>-2.250000000000004</v>
       </c>
       <c r="BA2">
-        <v>-0.9495762961801041</v>
+        <v>-0.8932038834951457</v>
       </c>
       <c r="BB2">
-        <v>-0.5172150139818418</v>
+        <v>-0.5323859796019488</v>
       </c>
       <c r="BC2">
-        <v>-2.052453151856335</v>
+        <v>-1.714285714285714</v>
       </c>
       <c r="BD2">
-        <v>-1.532551845240698</v>
+        <v>-1.2</v>
       </c>
       <c r="BE2">
-        <v>-1.210345886672173</v>
+        <v>-0.9492287456601801</v>
       </c>
       <c r="BF2">
-        <v>0.1075121980401457</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.759130222314683</v>
+        <v>1.547862052692272</v>
       </c>
       <c r="BH2">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>-1.368515205724509</v>
+        <v>-1.097338100913786</v>
       </c>
       <c r="BK2">
-        <v>-1.057033005361927</v>
+        <v>-0.9790363297113382</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>-0.8167070890822185</v>
+        <v>-0.6666666666666662</v>
       </c>
       <c r="BN2">
         <v>-0.9999999999999986</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS2">
-        <v>0.08419232531721561</v>
+        <v>0.06070598697685765</v>
       </c>
       <c r="BT2">
-        <v>0.1054089562044147</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="BW2">
-        <v>-0.3985530750244007</v>
+        <v>-0.3546966292134832</v>
       </c>
       <c r="BX2">
-        <v>0.4174221348119665</v>
+        <v>0.3212529005944114</v>
       </c>
       <c r="BY2">
-        <v>-0.3523072956077203</v>
+        <v>-0.2871435585101443</v>
       </c>
       <c r="BZ2">
-        <v>0.7511660320016132</v>
+        <v>0.4926473446520135</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1094,25 +1094,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D3">
-        <v>-0.2504732023857338</v>
+        <v>-0.2941176470588244</v>
       </c>
       <c r="E3">
-        <v>-0.2738158824151699</v>
+        <v>-0.04705882352941176</v>
       </c>
       <c r="F3">
-        <v>-0.1585474939416305</v>
+        <v>0.1297194804379564</v>
       </c>
       <c r="G3">
-        <v>-0.3840603685098949</v>
+        <v>-0.132075471698113</v>
       </c>
       <c r="H3">
-        <v>-0.5458487063176208</v>
+        <v>-0.5</v>
       </c>
       <c r="I3">
-        <v>-0.9192280831640531</v>
+        <v>-0.9662921348314607</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1360759559002462</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-0.2275131373411725</v>
+        <v>-0.1875</v>
       </c>
       <c r="T3">
-        <v>-0.1436159555686914</v>
+        <v>-0.1348314606741572</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1202,85 +1202,85 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.1231129641016246</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="AN3">
-        <v>1.806109057607678</v>
+        <v>1.519553072625698</v>
       </c>
       <c r="AO3">
-        <v>2.007294135450304</v>
+        <v>2.021680216802169</v>
       </c>
       <c r="AP3">
-        <v>2.223017378973012</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="AQ3">
-        <v>-0.9468133815679212</v>
+        <v>-1.095588235294117</v>
       </c>
       <c r="AR3">
-        <v>0.5576357452791196</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="AS3">
-        <v>0.4381924190440238</v>
+        <v>0.4807881773399014</v>
       </c>
       <c r="AT3">
-        <v>1.147153408930452</v>
+        <v>0.9814126394052044</v>
       </c>
       <c r="AU3">
-        <v>0.5996845020001584</v>
+        <v>0.5323076923076927</v>
       </c>
       <c r="AV3">
-        <v>0.2057036179331433</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="AW3">
-        <v>0.02974381292476677</v>
+        <v>-0.0160827110855829</v>
       </c>
       <c r="AX3">
-        <v>-0.3183364170449859</v>
+        <v>-0.1945913279951654</v>
       </c>
       <c r="AY3">
-        <v>-0.7450830856483838</v>
+        <v>-0.6275659824046917</v>
       </c>
       <c r="AZ3">
-        <v>0.354839550659472</v>
+        <v>0.5000000000000011</v>
       </c>
       <c r="BA3">
-        <v>-0.1635157951906622</v>
+        <v>-0.07766990291262135</v>
       </c>
       <c r="BB3">
-        <v>-0.1282275484169704</v>
+        <v>-0.1590545959426543</v>
       </c>
       <c r="BC3">
-        <v>0.1475468481436639</v>
+        <v>0.3809523809523805</v>
       </c>
       <c r="BD3">
-        <v>-0.766275922620349</v>
+        <v>-0.4</v>
       </c>
       <c r="BE3">
-        <v>-0.6525378161457071</v>
+        <v>-0.4323805785298202</v>
       </c>
       <c r="BF3">
-        <v>0.5034460357322299</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="BG3">
-        <v>0.9770615152097294</v>
+        <v>0.8267353296037043</v>
       </c>
       <c r="BH3">
-        <v>-1</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="BI3">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ3">
-        <v>-0.2523701404216883</v>
+        <v>-0.10580041079972</v>
       </c>
       <c r="BK3">
-        <v>-0.1599700976360001</v>
+        <v>-0.1053186109676845</v>
       </c>
       <c r="BL3">
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>-0.4083535445411101</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BN3">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>-0.2664465340571842</v>
+        <v>-0.2243645415416013</v>
       </c>
       <c r="BS3">
-        <v>0.04857965312018396</v>
+        <v>0.02752383169882682</v>
       </c>
       <c r="BT3">
-        <v>-0.05183808879071607</v>
+        <v>-0.02537223356353865</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.005350503692153386</v>
+        <v>0.05243445692883895</v>
       </c>
       <c r="BX3">
-        <v>0.5764875072333771</v>
+        <v>0.4724640267139089</v>
       </c>
       <c r="BY3">
-        <v>-0.09414646363468004</v>
+        <v>-0.04936109231320415</v>
       </c>
       <c r="BZ3">
-        <v>0.009691208734493592</v>
+        <v>-0.04604526211385476</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.0851063829787234</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.5009464047714677</v>
+        <v>-0.5294117647058829</v>
       </c>
       <c r="E4">
-        <v>0.5336387701083175</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="F4">
-        <v>0.8184862110531489</v>
+        <v>1.147308108742941</v>
       </c>
       <c r="G4">
-        <v>0.3152902437025493</v>
+        <v>0.3962264150943405</v>
       </c>
       <c r="H4">
-        <v>0.1819495687725403</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I4">
-        <v>0.1800246658162136</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>-0.04535865196674873</v>
+        <v>-0.04580152671755725</v>
       </c>
       <c r="R4">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>-0.4721249977646321</v>
+        <v>-0.375</v>
       </c>
       <c r="T4">
-        <v>-0.3254341373868732</v>
+        <v>-0.3146067415730335</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1441,85 +1441,85 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.02096429935707617</v>
+        <v>-0.004830917874396135</v>
       </c>
       <c r="AN4">
-        <v>0.8908841804189791</v>
+        <v>0.7970204841713215</v>
       </c>
       <c r="AO4">
-        <v>0.4087429471948699</v>
+        <v>0.5474254742547427</v>
       </c>
       <c r="AP4">
-        <v>0.5335241709535222</v>
+        <v>0.5106382978723399</v>
       </c>
       <c r="AQ4">
-        <v>1.157705749298062</v>
+        <v>1.375</v>
       </c>
       <c r="AR4">
-        <v>-0.5069415866173814</v>
+        <v>-0.5581395348837209</v>
       </c>
       <c r="AS4">
-        <v>-0.6126149289145463</v>
+        <v>-0.4926108374384237</v>
       </c>
       <c r="AT4">
-        <v>1.327415742605576</v>
+        <v>1.159851301115242</v>
       </c>
       <c r="AU4">
-        <v>0.995486600950683</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="AV4">
-        <v>-0.961861308341561</v>
+        <v>-0.8648648648648649</v>
       </c>
       <c r="AW4">
-        <v>-0.3892559865371632</v>
+        <v>-0.3882825962090752</v>
       </c>
       <c r="AX4">
-        <v>-0.4077031216308262</v>
+        <v>-0.2598579845898172</v>
       </c>
       <c r="AY4">
-        <v>-0.4894920313352847</v>
+        <v>-0.3929618768328443</v>
       </c>
       <c r="AZ4">
-        <v>0.6048395506594714</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="BA4">
-        <v>0.3979559912303677</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="BB4">
-        <v>0.1266645230357936</v>
+        <v>0.08557850446087141</v>
       </c>
       <c r="BC4">
-        <v>0.3475468481436641</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="BD4">
-        <v>0.5619356765882561</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="BE4">
-        <v>0.4037653998452712</v>
+        <v>0.5463581847935011</v>
       </c>
       <c r="BF4">
-        <v>-0.2224326667032578</v>
+        <v>-0.3448275862068966</v>
       </c>
       <c r="BG4">
-        <v>-0.744279677083585</v>
+        <v>-0.7604719349739643</v>
       </c>
       <c r="BH4">
-        <v>0.4999999999999994</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="BI4">
-        <v>-1.034353394986313</v>
+        <v>0.8</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.11839491458085</v>
       </c>
       <c r="BK4">
-        <v>-0.06536024979849824</v>
+        <v>-0.0131708923279551</v>
       </c>
       <c r="BL4">
-        <v>1.149042978981124</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="BM4">
-        <v>-0.8167070890822185</v>
+        <v>-0.6666666666666662</v>
       </c>
       <c r="BN4">
         <v>-0.6666666666666666</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.2968901995681212</v>
+        <v>0.25</v>
       </c>
       <c r="BS4">
-        <v>-0.002677756769162186</v>
+        <v>-0.02023532899228589</v>
       </c>
       <c r="BT4">
-        <v>0.1475725386861806</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="BU4">
         <v>1</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="BW4">
-        <v>-0.3406487350670968</v>
+        <v>-0.2963295880149813</v>
       </c>
       <c r="BX4">
-        <v>-0.5398468399977087</v>
+        <v>-0.5887485502351487</v>
       </c>
       <c r="BY4">
-        <v>-0.2231692544354919</v>
+        <v>-0.1681992489683267</v>
       </c>
       <c r="BZ4">
-        <v>-0.9306371911120535</v>
+        <v>-0.7292079819177987</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-1.191489361702128</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="D5">
-        <v>-0.2504732023857338</v>
+        <v>-0.2941176470588244</v>
       </c>
       <c r="E5">
-        <v>0.18758677616968</v>
+        <v>0.3294117647058823</v>
       </c>
       <c r="F5">
-        <v>0.3195930447813879</v>
+        <v>0.6277067785719164</v>
       </c>
       <c r="G5">
-        <v>0.06552216791238953</v>
+        <v>0.2075471698113206</v>
       </c>
       <c r="H5">
-        <v>0.5458487063176208</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I5">
-        <v>0.7296510403063471</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>-1.164205400479884</v>
+        <v>-1.175572519083969</v>
       </c>
       <c r="R5">
-        <v>-0.5289788580857161</v>
+        <v>-0.65</v>
       </c>
       <c r="S5">
-        <v>-0.3090504241489924</v>
+        <v>-0.25</v>
       </c>
       <c r="T5">
-        <v>-0.4617977737505095</v>
+        <v>-0.4494382022471907</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1680,85 +1680,85 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>-0.1859736808675005</v>
+        <v>-0.2077294685990338</v>
       </c>
       <c r="AN5">
-        <v>-0.9584361899829259</v>
+        <v>-0.6629422718808193</v>
       </c>
       <c r="AO5">
-        <v>-0.3670245412232084</v>
+        <v>-0.1680216802168026</v>
       </c>
       <c r="AP5">
-        <v>-1.244889732224887</v>
+        <v>-1.191489361702128</v>
       </c>
       <c r="AQ5">
-        <v>0.6816835649355185</v>
+        <v>0.8161764705882355</v>
       </c>
       <c r="AR5">
-        <v>1.013883173234763</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="AS5">
-        <v>-0.09359267607671007</v>
+        <v>-0.01182266009852227</v>
       </c>
       <c r="AT5">
-        <v>0.5913445467654875</v>
+        <v>0.4312267657992567</v>
       </c>
       <c r="AU5">
-        <v>0.2758464210406378</v>
+        <v>0.2</v>
       </c>
       <c r="AV5">
-        <v>0.5300272085650057</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="AW5">
-        <v>0.1021635313502855</v>
+        <v>0.04824813325674903</v>
       </c>
       <c r="AX5">
-        <v>-0.4987247651904784</v>
+        <v>-0.3263332829732588</v>
       </c>
       <c r="AY5">
-        <v>-0.2850191878848054</v>
+        <v>-0.2052785923753663</v>
       </c>
       <c r="AZ5">
-        <v>-0.6451604493405303</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="BA5">
-        <v>-0.4629674146152115</v>
+        <v>-0.3883495145631068</v>
       </c>
       <c r="BB5">
-        <v>-0.6613925653210829</v>
+        <v>-0.6707606304558625</v>
       </c>
       <c r="BC5">
-        <v>-0.6524531518563359</v>
+        <v>-0.3809523809523814</v>
       </c>
       <c r="BD5">
-        <v>-0.766275922620349</v>
+        <v>-0.4</v>
       </c>
       <c r="BE5">
-        <v>-0.7556730612863203</v>
+        <v>-0.5279425921219794</v>
       </c>
       <c r="BF5">
-        <v>-0.02446574785721568</v>
+        <v>-0.1379310344827586</v>
       </c>
       <c r="BG5">
-        <v>0.6458922375418807</v>
+        <v>0.5213721130184702</v>
       </c>
       <c r="BH5">
-        <v>2</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="BI5">
-        <v>1.034353394986313</v>
+        <v>1.2</v>
       </c>
       <c r="BJ5">
-        <v>1.085867620751342</v>
+        <v>1.083035359555025</v>
       </c>
       <c r="BK5">
-        <v>1.39059565950599</v>
+        <v>1.404895181648557</v>
       </c>
       <c r="BL5">
-        <v>-0.2298085957962253</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="BM5">
-        <v>-0.8167070890822185</v>
+        <v>-0.6666666666666662</v>
       </c>
       <c r="BN5">
         <v>-0.3333333333333333</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>-0.08954783885553999</v>
+        <v>-0.1011766449614294</v>
       </c>
       <c r="BT5">
-        <v>0.4848811985403079</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="BW5">
-        <v>-0.4387413027565749</v>
+        <v>-0.3952059925093633</v>
       </c>
       <c r="BX5">
-        <v>2.121264991421772</v>
+        <v>1.940964300735397</v>
       </c>
       <c r="BY5">
-        <v>-0.1863467607679087</v>
+        <v>-0.1342834016692542</v>
       </c>
       <c r="BZ5">
-        <v>4.559877796157273</v>
+        <v>3.259733703177902</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9361702127659575</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="D6">
-        <v>-0.2504732023857338</v>
+        <v>-0.2941176470588244</v>
       </c>
       <c r="E6">
-        <v>-0.7928938733231261</v>
+        <v>-0.4705882352941176</v>
       </c>
       <c r="F6">
-        <v>-0.6964556000050264</v>
+        <v>-0.4305162299627487</v>
       </c>
       <c r="G6">
-        <v>-0.8835965200902111</v>
+        <v>-0.5094339622641503</v>
       </c>
       <c r="H6">
-        <v>-1.455596550180322</v>
+        <v>-1.461538461538461</v>
       </c>
       <c r="I6">
-        <v>-1.331447864031653</v>
+        <v>-1.370786516853933</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.982770792612889</v>
+        <v>0.9923664122137404</v>
       </c>
       <c r="R6">
-        <v>1.424173848692313</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>0.832471591160486</v>
+        <v>0.625</v>
       </c>
       <c r="T6">
-        <v>0.7200204080676724</v>
+        <v>0.7191011235955057</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1919,85 +1919,85 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>28.81638951698851</v>
+        <v>35.45410628019324</v>
       </c>
       <c r="AN6">
-        <v>-0.1375643929167743</v>
+        <v>-0.01489757914338954</v>
       </c>
       <c r="AO6">
-        <v>-0.2494840126750147</v>
+        <v>-0.05962059620596227</v>
       </c>
       <c r="AP6">
-        <v>0.5779845185329825</v>
+        <v>0.5531914893617017</v>
       </c>
       <c r="AQ6">
-        <v>-0.3079415025550333</v>
+        <v>-0.3455882352941174</v>
       </c>
       <c r="AR6">
-        <v>0.5576357452791196</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="AS6">
-        <v>-0.7530061940264202</v>
+        <v>-0.6226600985221677</v>
       </c>
       <c r="AT6">
-        <v>0.1857542959964589</v>
+        <v>0.02973977695167225</v>
       </c>
       <c r="AU6">
-        <v>0.5517084900061549</v>
+        <v>0.4830769230769227</v>
       </c>
       <c r="AV6">
-        <v>-0.8969965902151885</v>
+        <v>-0.8108108108108109</v>
       </c>
       <c r="AW6">
-        <v>-0.3530461273244039</v>
+        <v>-0.3561171740379093</v>
       </c>
       <c r="AX6">
-        <v>-0.05851099815652414</v>
+        <v>-0.004834567155159372</v>
       </c>
       <c r="AY6">
-        <v>1.734150141188677</v>
+        <v>1.648093841642228</v>
       </c>
       <c r="AZ6">
-        <v>-0.1451604493405292</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>-0.1260843427625935</v>
+        <v>-0.03883495145631068</v>
       </c>
       <c r="BB6">
-        <v>0.1792159038261955</v>
+        <v>0.1360147818231695</v>
       </c>
       <c r="BC6">
-        <v>-0.6524531518563359</v>
+        <v>-0.3809523809523814</v>
       </c>
       <c r="BD6">
-        <v>-0.6641057996043026</v>
+        <v>-0.2933333333333333</v>
       </c>
       <c r="BE6">
-        <v>-0.4208970885115809</v>
+        <v>-0.2177492531037739</v>
       </c>
       <c r="BF6">
-        <v>0.4374570627835492</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="BG6">
-        <v>0.8231859278077417</v>
+        <v>0.6848503556897274</v>
       </c>
       <c r="BH6">
-        <v>0.4999999999999994</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="BI6">
-        <v>-1.034353394986313</v>
+        <v>0.8</v>
       </c>
       <c r="BJ6">
-        <v>-0.3685152057245081</v>
+        <v>-0.208978943186333</v>
       </c>
       <c r="BK6">
-        <v>0.06536024979849887</v>
+        <v>0.114147733508945</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.4083535445411101</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="BN6">
         <v>-0.6666666666666666</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS6">
-        <v>0.3013675305331601</v>
+        <v>0.2630592768997165</v>
       </c>
       <c r="BT6">
-        <v>-0.2740632861314783</v>
+        <v>-0.208695652173913</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -2027,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="BW6">
-        <v>-0.1468416013290976</v>
+        <v>-0.1009737827715356</v>
       </c>
       <c r="BX6">
-        <v>-0.552535413257871</v>
+        <v>-0.6008105937981928</v>
       </c>
       <c r="BY6">
-        <v>4.086560759500158</v>
+        <v>3.801334872550191</v>
       </c>
       <c r="BZ6">
-        <v>6.196528277008236</v>
+        <v>4.448784883647449</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.851063829787234</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.1252366011928669</v>
+        <v>-0.1764705882352952</v>
       </c>
       <c r="E7">
-        <v>0.418288105462105</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="F7">
-        <v>0.4917520907081786</v>
+        <v>0.8070118388777671</v>
       </c>
       <c r="G7">
-        <v>0.3152902437025493</v>
+        <v>0.3962264150943405</v>
       </c>
       <c r="H7">
-        <v>-0.1819495687725403</v>
+        <v>-0.1153846153846154</v>
       </c>
       <c r="I7">
-        <v>-0.4154039065480976</v>
+        <v>-0.4719101123595505</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2092,16 +2092,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.2267932598337436</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="R7">
-        <v>0.2034534069560447</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
-        <v>0.2617105835057468</v>
+        <v>0.1875</v>
       </c>
       <c r="T7">
-        <v>0.2200204080676722</v>
+        <v>0.2247191011235954</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -2158,85 +2158,85 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.1702585016760315</v>
+        <v>-0.1884057971014493</v>
       </c>
       <c r="AN7">
-        <v>-1.298107278424093</v>
+        <v>-0.9310986964618251</v>
       </c>
       <c r="AO7">
-        <v>-1.201562293915383</v>
+        <v>-0.9376693766937677</v>
       </c>
       <c r="AP7">
-        <v>-1.511651817701648</v>
+        <v>-1.446808510638298</v>
       </c>
       <c r="AQ7">
-        <v>-0.1701456070816652</v>
+        <v>-0.1838235294117644</v>
       </c>
       <c r="AR7">
-        <v>0.6590240626025959</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="AS7">
-        <v>-0.2169668181447204</v>
+        <v>-0.1261083743842366</v>
       </c>
       <c r="AT7">
-        <v>1.162175270070045</v>
+        <v>0.9962825278810411</v>
       </c>
       <c r="AU7">
-        <v>1.996985851325496</v>
+        <v>1.966153846153846</v>
       </c>
       <c r="AV7">
-        <v>-2.194290952742638</v>
+        <v>-1.891891891891892</v>
       </c>
       <c r="AW7">
-        <v>-0.2082066904733663</v>
+        <v>-0.2274554853532452</v>
       </c>
       <c r="AX7">
-        <v>-0.258758613987759</v>
+        <v>-0.1510802235987309</v>
       </c>
       <c r="AY7">
-        <v>0.2900606843196674</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="AZ7">
-        <v>1.354839550659472</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="BA7">
-        <v>1.109153587363672</v>
+        <v>1.242718446601942</v>
       </c>
       <c r="BB7">
-        <v>0.8636350774535699</v>
+        <v>0.7928872512797629</v>
       </c>
       <c r="BC7">
-        <v>0.5475468481436643</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="BD7">
-        <v>1.021701230160466</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="BE7">
-        <v>0.8236209368006758</v>
+        <v>0.9353836869346319</v>
       </c>
       <c r="BF7">
-        <v>0.4374570627835492</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="BG7">
-        <v>-0.6368324380386149</v>
+        <v>-0.661397423113953</v>
       </c>
       <c r="BH7">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI7">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ7">
-        <v>-0.01504078381833104</v>
+        <v>0.1050332965364368</v>
       </c>
       <c r="BK7">
-        <v>-0.08654779474637514</v>
+        <v>-0.0338070520422897</v>
       </c>
       <c r="BL7">
-        <v>1.37885157477735</v>
+        <v>1.2</v>
       </c>
       <c r="BM7">
-        <v>0.8167070890822202</v>
+        <v>0.6666666666666676</v>
       </c>
       <c r="BN7">
         <v>1.999999999999998</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>0.7554041250011325</v>
+        <v>0.6360972222222223</v>
       </c>
       <c r="BS7">
-        <v>0.0784303380694947</v>
+        <v>0.05533724759930977</v>
       </c>
       <c r="BT7">
-        <v>-0.1407714835654697</v>
+        <v>-0.09873733416342148</v>
       </c>
       <c r="BU7">
         <v>1</v>
@@ -2266,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.3715627563995383</v>
+        <v>0.4215730337078651</v>
       </c>
       <c r="BX7">
-        <v>-0.2464463755949834</v>
+        <v>-0.3098354596551153</v>
       </c>
       <c r="BY7">
-        <v>2.29960375068677</v>
+        <v>2.155434364343245</v>
       </c>
       <c r="BZ7">
-        <v>0.6127167560639769</v>
+        <v>0.3920618641753232</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.1702127659574468</v>
+        <v>-0.09090909090909091</v>
       </c>
       <c r="D8">
-        <v>0.6261830059643346</v>
+        <v>0.5294117647058804</v>
       </c>
       <c r="E8">
-        <v>0.3606127731389988</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F8">
-        <v>0.05867534392886262</v>
+        <v>0.3559588501701728</v>
       </c>
       <c r="G8">
-        <v>0.4651510891766434</v>
+        <v>0.5094339622641512</v>
       </c>
       <c r="H8">
-        <v>0.9097478438627014</v>
+        <v>1.038461538461539</v>
       </c>
       <c r="I8">
-        <v>-0.1863929171772086</v>
+        <v>-0.247191011235955</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>-0.4082278677007385</v>
+        <v>-0.4122137404580153</v>
       </c>
       <c r="R8">
-        <v>-0.4069068139120893</v>
+        <v>-0.5</v>
       </c>
       <c r="S8">
-        <v>-1.124423292227191</v>
+        <v>-0.875</v>
       </c>
       <c r="T8">
-        <v>-0.6890705010232369</v>
+        <v>-0.6741573033707862</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2397,82 +2397,82 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.3719151804296484</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AN8">
-        <v>0.5795190160145766</v>
+        <v>0.5512104283053998</v>
       </c>
       <c r="AO8">
-        <v>0.4910213171786053</v>
+        <v>0.6233062330623307</v>
       </c>
       <c r="AP8">
-        <v>0.1333810427383808</v>
+        <v>0.1276595744680852</v>
       </c>
       <c r="AQ8">
-        <v>0.3184034768693666</v>
+        <v>0.3897058823529413</v>
       </c>
       <c r="AR8">
-        <v>0.5069415866173814</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="AS8">
-        <v>-0.1148640798815393</v>
+        <v>-0.03152709359605915</v>
       </c>
       <c r="AT8">
-        <v>0.4711696576487378</v>
+        <v>0.3122676579925645</v>
       </c>
       <c r="AU8">
-        <v>-0.1199556779098866</v>
+        <v>-0.2061538461538458</v>
       </c>
       <c r="AV8">
-        <v>0.4002977723122608</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AW8">
-        <v>-0.2961449199900676</v>
+        <v>-0.3055715106260769</v>
       </c>
       <c r="AX8">
-        <v>0.1111202466591913</v>
+        <v>0.1190512161958</v>
       </c>
       <c r="AY8">
-        <v>0.3028402370353224</v>
+        <v>0.3343108504398828</v>
       </c>
       <c r="AZ8">
-        <v>-0.3951604493405286</v>
+        <v>-0.2499999999999994</v>
       </c>
       <c r="BA8">
-        <v>1.146585039791741</v>
+        <v>1.281553398058253</v>
       </c>
       <c r="BB8">
-        <v>0.8188377568736905</v>
+        <v>0.7498929464323584</v>
       </c>
       <c r="BC8">
-        <v>-1.052453151856335</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="BD8">
-        <v>0.6130207380962793</v>
+        <v>1.04</v>
       </c>
       <c r="BE8">
-        <v>0.4017942470896125</v>
+        <v>0.5445317739853271</v>
       </c>
       <c r="BF8">
-        <v>1.031357819321675</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="BG8">
-        <v>0.00124966259053421</v>
+        <v>-0.07303728274789949</v>
       </c>
       <c r="BH8">
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>-0.2593917710196781</v>
+        <v>-0.1120381406436235</v>
       </c>
       <c r="BK8">
-        <v>-0.4394913348519743</v>
+        <v>-0.3775655800680502</v>
       </c>
       <c r="BL8">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS8">
-        <v>0.779152982008238</v>
+        <v>0.7082365147300059</v>
       </c>
       <c r="BT8">
-        <v>-0.5692083635038396</v>
+        <v>-0.4521739130434783</v>
       </c>
       <c r="BU8">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="BW8">
-        <v>-0.05041363478828938</v>
+        <v>-0.003775280898876462</v>
       </c>
       <c r="BX8">
-        <v>-0.5199532379230798</v>
+        <v>-0.5698372439810862</v>
       </c>
       <c r="BY8">
-        <v>-0.151137772300157</v>
+        <v>-0.1018536947839126</v>
       </c>
       <c r="BZ8">
-        <v>0.5847557569606006</v>
+        <v>0.3717477779486225</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -2528,25 +2528,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.021276595744681</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="D9">
-        <v>-1.5028392143144</v>
+        <v>-1.470588235294114</v>
       </c>
       <c r="E9">
-        <v>-2.11942651675457</v>
+        <v>-1.552941176470588</v>
       </c>
       <c r="F9">
-        <v>-1.670480174005239</v>
+        <v>-1.44497082362236</v>
       </c>
       <c r="G9">
-        <v>-2.63197305062132</v>
+        <v>-1.830188679245283</v>
       </c>
       <c r="H9">
-        <v>0.1819495687725403</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I9">
-        <v>-0.4154039065480976</v>
+        <v>-0.4719101123595505</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.1360759559002462</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1.158620738391765</v>
+        <v>0.875</v>
       </c>
       <c r="T9">
-        <v>1.083656771704036</v>
+        <v>1.078651685393258</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2636,85 +2636,85 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>1.533415145106879</v>
+        <v>1.906462450242252</v>
       </c>
       <c r="AN9">
-        <v>-1.345283818485365</v>
+        <v>-0.9683426443202979</v>
       </c>
       <c r="AO9">
-        <v>-1.648216302398519</v>
+        <v>-1.34959349593496</v>
       </c>
       <c r="AP9">
-        <v>0.1778413903178411</v>
+        <v>0.170212765957447</v>
       </c>
       <c r="AQ9">
-        <v>-0.3204684021435213</v>
+        <v>-0.3602941176470587</v>
       </c>
       <c r="AR9">
-        <v>-0.9631890145730247</v>
+        <v>-0.9767441860465116</v>
       </c>
       <c r="AS9">
-        <v>-0.09359267607671007</v>
+        <v>-0.01182266009852227</v>
       </c>
       <c r="AT9">
-        <v>-0.9258634283334701</v>
+        <v>-1.070631970260224</v>
       </c>
       <c r="AU9">
-        <v>-0.6237038038469185</v>
+        <v>-0.7230769230769231</v>
       </c>
       <c r="AV9">
-        <v>-0.7672671539624436</v>
+        <v>-0.7027027027027027</v>
       </c>
       <c r="AW9">
-        <v>-0.2857992459292793</v>
+        <v>-0.2963813900057438</v>
       </c>
       <c r="AX9">
-        <v>-0.4159778164998855</v>
+        <v>-0.2659011935337664</v>
       </c>
       <c r="AY9">
-        <v>0.673447265789316</v>
+        <v>0.6744868035190617</v>
       </c>
       <c r="AZ9">
-        <v>-1.895160449340532</v>
+        <v>-1.750000000000003</v>
       </c>
       <c r="BA9">
-        <v>-1.585910987457271</v>
+        <v>-1.553398058252427</v>
       </c>
       <c r="BB9">
-        <v>-0.7166517300675725</v>
+        <v>-0.7237957080892919</v>
       </c>
       <c r="BC9">
-        <v>-1.652453151856336</v>
+        <v>-1.333333333333334</v>
       </c>
       <c r="BD9">
-        <v>-1.685807029764768</v>
+        <v>-1.36</v>
       </c>
       <c r="BE9">
-        <v>-1.120257678742669</v>
+        <v>-0.8657557240087055</v>
       </c>
       <c r="BF9">
-        <v>-0.816333423241384</v>
+        <v>-0.9655172413793104</v>
       </c>
       <c r="BG9">
-        <v>1.386399073178168</v>
+        <v>1.204175635210055</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BI9">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ9">
-        <v>-0.3577817531305905</v>
+        <v>-0.1994437822804928</v>
       </c>
       <c r="BK9">
-        <v>1.246352349605856</v>
+        <v>1.264405663483702</v>
       </c>
       <c r="BL9">
-        <v>-1.838468766369801</v>
+        <v>-1.600000000000001</v>
       </c>
       <c r="BM9">
-        <v>-2.858474811787767</v>
+        <v>-2.333333333333334</v>
       </c>
       <c r="BN9">
         <v>-1.333333333333332</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>-0.2968901995681212</v>
+        <v>-0.25</v>
       </c>
       <c r="BS9">
-        <v>-1.131988823892074</v>
+        <v>-1.072472436591152</v>
       </c>
       <c r="BT9">
-        <v>0.4848811985403079</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="BU9">
         <v>1</v>
@@ -2744,16 +2744,16 @@
         <v>1</v>
       </c>
       <c r="BW9">
-        <v>-0.4069949808497983</v>
+        <v>-0.3632059925093634</v>
       </c>
       <c r="BX9">
-        <v>-0.2384020561147453</v>
+        <v>-0.3021883483514103</v>
       </c>
       <c r="BY9">
-        <v>-0.4318300518851301</v>
+        <v>-0.3603890503297374</v>
       </c>
       <c r="BZ9">
-        <v>-0.7506615602166543</v>
+        <v>-0.5984529802386021</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.2553191489361702</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="D10">
-        <v>1.502839214314403</v>
+        <v>1.352941176470585</v>
       </c>
       <c r="E10">
-        <v>-0.1007898854458512</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="F10">
-        <v>-0.7404127250870035</v>
+        <v>-0.4762979367633741</v>
       </c>
       <c r="G10">
-        <v>0.2653366285445165</v>
+        <v>0.3584905660377359</v>
       </c>
       <c r="H10">
-        <v>0.1819495687725403</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I10">
-        <v>-0.5528105001706309</v>
+        <v>-0.6067415730337079</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2809,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>-0.2570323611449095</v>
+        <v>-0.2595419847328244</v>
       </c>
       <c r="R10">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S10">
-        <v>-0.553662284572452</v>
+        <v>-0.4375</v>
       </c>
       <c r="T10">
-        <v>-0.3708886828414187</v>
+        <v>-0.3595505617977526</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2875,85 +2875,85 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>-0.193831270463235</v>
+        <v>-0.2173913043478261</v>
       </c>
       <c r="AN10">
-        <v>-0.9018243419093981</v>
+        <v>-0.6182495344506517</v>
       </c>
       <c r="AO10">
-        <v>-0.8842028668352604</v>
+        <v>-0.6449864498644993</v>
       </c>
       <c r="AP10">
-        <v>0.4446034757946017</v>
+        <v>0.4255319148936165</v>
       </c>
       <c r="AQ10">
-        <v>-0.9718671807448972</v>
+        <v>-1.125</v>
       </c>
       <c r="AR10">
-        <v>0.2534707933086907</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="AS10">
-        <v>-0.2424925027105158</v>
+        <v>-0.1497536945812811</v>
       </c>
       <c r="AT10">
-        <v>1.192218992349233</v>
+        <v>1.026022304832714</v>
       </c>
       <c r="AU10">
-        <v>0.1019333775623766</v>
+        <v>0.02153846153846119</v>
       </c>
       <c r="AV10">
-        <v>0.2705683360595158</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="AW10">
-        <v>-0.6246200714200991</v>
+        <v>-0.5973578403216543</v>
       </c>
       <c r="AX10">
-        <v>-0.5309960751798096</v>
+        <v>-0.3499017978546607</v>
       </c>
       <c r="AY10">
-        <v>-0.6045080057761791</v>
+        <v>-0.4985337243401756</v>
       </c>
       <c r="AZ10">
-        <v>-0.1451604493405292</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>-0.05122143790645622</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="BB10">
-        <v>-0.3163343974868024</v>
+        <v>-0.339590465233586</v>
       </c>
       <c r="BC10">
-        <v>-0.6524531518563359</v>
+        <v>-0.3809523809523814</v>
       </c>
       <c r="BD10">
-        <v>-0.2043402460320931</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="BE10">
-        <v>-0.2830477246692313</v>
+        <v>-0.09002218207957655</v>
       </c>
       <c r="BF10">
-        <v>-0.02446574785721568</v>
+        <v>-0.1379310344827586</v>
       </c>
       <c r="BG10">
-        <v>0.05065229310697007</v>
+        <v>-0.0274843067336172</v>
       </c>
       <c r="BH10">
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.1073345259391771</v>
+        <v>0.2137465236392529</v>
       </c>
       <c r="BK10">
-        <v>0.08789826697039499</v>
+        <v>0.1360992207222037</v>
       </c>
       <c r="BL10">
         <v>0</v>
       </c>
       <c r="BM10">
-        <v>1.633414178164439</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="BN10">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS10">
-        <v>3.254950321470005</v>
+        <v>3.015064019850597</v>
       </c>
       <c r="BT10">
-        <v>-1.749788672993285</v>
+        <v>-1.426086956521739</v>
       </c>
       <c r="BU10">
         <v>0</v>
@@ -2983,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="BW10">
-        <v>-0.3864252666555199</v>
+        <v>-0.3424719101123596</v>
       </c>
       <c r="BX10">
-        <v>-0.4842900882273574</v>
+        <v>-0.5359350505346606</v>
       </c>
       <c r="BY10">
-        <v>-0.338477251037736</v>
+        <v>-0.2744052121067367</v>
       </c>
       <c r="BZ10">
-        <v>1.759117719302408</v>
+        <v>1.224939399470051</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -3006,25 +3006,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-1.531914893617021</v>
+        <v>-1.545454545454545</v>
       </c>
       <c r="D11">
-        <v>-1.377602613121534</v>
+        <v>-1.352941176470585</v>
       </c>
       <c r="E11">
-        <v>-0.2161405500920636</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4850727243031713</v>
+        <v>0.8000552239081187</v>
       </c>
       <c r="G11">
-        <v>-0.5838748291420218</v>
+        <v>-0.2830188679245282</v>
       </c>
       <c r="H11">
-        <v>-0.5458487063176208</v>
+        <v>-0.5</v>
       </c>
       <c r="I11">
-        <v>-0.09478852142885308</v>
+        <v>-0.1573033707865168</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>-0.8618143873682258</v>
+        <v>-0.8702290076335878</v>
       </c>
       <c r="R11">
-        <v>-0.4882881766945071</v>
+        <v>-0.6</v>
       </c>
       <c r="S11">
-        <v>-0.7167368581880917</v>
+        <v>-0.5625</v>
       </c>
       <c r="T11">
-        <v>-0.4617977737505095</v>
+        <v>-0.4494382022471907</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -3114,82 +3114,82 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.02096429935707617</v>
+        <v>-0.004830917874396135</v>
       </c>
       <c r="AN11">
-        <v>-0.7414241057010696</v>
+        <v>-0.4916201117318436</v>
       </c>
       <c r="AO11">
-        <v>-0.2612380655298338</v>
+        <v>-0.07046070460704605</v>
       </c>
       <c r="AP11">
-        <v>-1.778413903178409</v>
+        <v>-1.702127659574468</v>
       </c>
       <c r="AQ11">
-        <v>-0.6085870926787452</v>
+        <v>-0.6985294117647056</v>
       </c>
       <c r="AR11">
-        <v>0.3041649519704289</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="AS11">
-        <v>-0.4254265754320481</v>
+        <v>-0.3192118226600988</v>
       </c>
       <c r="AT11">
-        <v>0.2608636016944271</v>
+        <v>0.1040892193308545</v>
       </c>
       <c r="AU11">
-        <v>0.07194837006612473</v>
+        <v>-0.00923076923076958</v>
       </c>
       <c r="AV11">
-        <v>0.984080235449613</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="AW11">
-        <v>-0.3013177570204619</v>
+        <v>-0.3101665709362436</v>
       </c>
       <c r="AX11">
-        <v>-0.02292981021956922</v>
+        <v>0.02115123130382233</v>
       </c>
       <c r="AY11">
-        <v>-0.06776679171867131</v>
+        <v>-0.005865102639296061</v>
       </c>
       <c r="AZ11">
-        <v>-0.3951604493405286</v>
+        <v>-0.2499999999999994</v>
       </c>
       <c r="BA11">
-        <v>-0.3132416049029368</v>
+        <v>-0.2330097087378641</v>
       </c>
       <c r="BB11">
-        <v>-0.195760094521983</v>
+        <v>-0.2238690722723931</v>
       </c>
       <c r="BC11">
-        <v>-0.4524531518563357</v>
+        <v>-0.1904761904761907</v>
       </c>
       <c r="BD11">
-        <v>-0.6130207380962793</v>
+        <v>-0.24</v>
       </c>
       <c r="BE11">
-        <v>-0.450523991320934</v>
+        <v>-0.2452006494242165</v>
       </c>
       <c r="BF11">
-        <v>0.04152322509146502</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="BG11">
-        <v>0.5164345943773954</v>
+        <v>0.4020023375168322</v>
       </c>
       <c r="BH11">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>-0.4883720930232557</v>
+        <v>-0.3154549066348826</v>
       </c>
       <c r="BK11">
-        <v>-0.2456643871736672</v>
+        <v>-0.1887827900340248</v>
       </c>
       <c r="BL11">
-        <v>-0.4596171915924505</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>-0.2968901995681212</v>
+        <v>-0.25</v>
       </c>
       <c r="BS11">
-        <v>0.779152982008238</v>
+        <v>0.7082365147300059</v>
       </c>
       <c r="BT11">
-        <v>-0.3583904510950102</v>
+        <v>-0.2782608695652174</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -3222,16 +3222,16 @@
         <v>1</v>
       </c>
       <c r="BW11">
-        <v>-0.3036708095502147</v>
+        <v>-0.2590561797752809</v>
       </c>
       <c r="BX11">
-        <v>0.7003700272290442</v>
+        <v>0.5902295407909662</v>
       </c>
       <c r="BY11">
-        <v>-0.1091290119188297</v>
+        <v>-0.06316096758356225</v>
       </c>
       <c r="BZ11">
-        <v>0.4263100953748012</v>
+        <v>0.2566346226639853</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.276595744680851</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="D12">
-        <v>-1.001892809542935</v>
+        <v>-1</v>
       </c>
       <c r="E12">
-        <v>0.07223611152346755</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="F12">
-        <v>0.6008490480211586</v>
+        <v>0.9206372159520984</v>
       </c>
       <c r="G12">
-        <v>-0.184245907877768</v>
+        <v>0.01886792452830233</v>
       </c>
       <c r="H12">
-        <v>-0.727798275090161</v>
+        <v>-0.6923076923076923</v>
       </c>
       <c r="I12">
-        <v>-0.4612061044222753</v>
+        <v>-0.5168539325842697</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.982770792612889</v>
+        <v>0.9923664122137404</v>
       </c>
       <c r="R12">
-        <v>1.424173848692313</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.077083451583946</v>
+        <v>0.8125</v>
       </c>
       <c r="T12">
-        <v>0.992747680794945</v>
+        <v>0.9887640449438201</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3353,85 +3353,85 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>1.786281307661857</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="AN12">
-        <v>0.06057707534057265</v>
+        <v>0.141527001862197</v>
       </c>
       <c r="AO12">
-        <v>-0.8019244968515246</v>
+        <v>-0.5691056910569108</v>
       </c>
       <c r="AP12">
-        <v>-0.6669052136919036</v>
+        <v>-0.6382978723404257</v>
       </c>
       <c r="AQ12">
-        <v>2.322707411027446</v>
+        <v>2.742647058823529</v>
       </c>
       <c r="AR12">
-        <v>-0.2534707933086907</v>
+        <v>-0.3255813953488372</v>
       </c>
       <c r="AS12">
-        <v>4.18195948869399</v>
+        <v>3.948768472906405</v>
       </c>
       <c r="AT12">
-        <v>-0.1297047879350078</v>
+        <v>-0.2825278810408933</v>
       </c>
       <c r="AU12">
-        <v>-0.3838237438769035</v>
+        <v>-0.4769230769230769</v>
       </c>
       <c r="AV12">
-        <v>-1.221320180847051</v>
+        <v>-1.081081081081081</v>
       </c>
       <c r="AW12">
-        <v>0.16941041274541</v>
+        <v>0.1079839172889145</v>
       </c>
       <c r="AX12">
-        <v>0.09208844846035495</v>
+        <v>0.1051518356247167</v>
       </c>
       <c r="AY12">
-        <v>-0.3616965041787352</v>
+        <v>-0.2756598240469206</v>
       </c>
       <c r="AZ12">
-        <v>-0.1451604493405292</v>
+        <v>0</v>
       </c>
       <c r="BA12">
-        <v>0.02364146694968111</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="BB12">
-        <v>-0.02266898404359747</v>
+        <v>-0.05774458371032459</v>
       </c>
       <c r="BC12">
-        <v>-1.452453151856336</v>
+        <v>-1.142857142857143</v>
       </c>
       <c r="BD12">
-        <v>-0.5619356765882561</v>
+        <v>-0.1866666666666667</v>
       </c>
       <c r="BE12">
-        <v>-0.5035890661305755</v>
+        <v>-0.2943691503892762</v>
       </c>
       <c r="BF12">
-        <v>0.5694350086809106</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="BG12">
-        <v>0.7903813762026193</v>
+        <v>0.6546020685680474</v>
       </c>
       <c r="BH12">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BI12">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ12">
-        <v>0.6100178890876572</v>
+        <v>0.6603098927294399</v>
       </c>
       <c r="BK12">
-        <v>0.9488505229368271</v>
+        <v>0.9746460322686867</v>
       </c>
       <c r="BL12">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM12">
-        <v>0.4083535445411101</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="BN12">
         <v>-0.3333333333333333</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS12">
-        <v>2.603424705822172</v>
+        <v>2.40800415008202</v>
       </c>
       <c r="BT12">
-        <v>-2.129260915329178</v>
+        <v>-1.739130434782609</v>
       </c>
       <c r="BU12">
         <v>1</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="BW12">
-        <v>3.174037690267416</v>
+        <v>3.246441947565543</v>
       </c>
       <c r="BX12">
-        <v>-0.4532390150336383</v>
+        <v>-0.5064172009023592</v>
       </c>
       <c r="BY12">
-        <v>-0.1996005534808103</v>
+        <v>-0.1464909836391864</v>
       </c>
       <c r="BZ12">
-        <v>1.058748790634688</v>
+        <v>0.7161108431349504</v>
       </c>
       <c r="CA12">
         <v>0</v>
@@ -3484,25 +3484,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.2553191489361702</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="D13">
-        <v>0.2504732023857338</v>
+        <v>0.1764705882352926</v>
       </c>
       <c r="E13">
-        <v>-0.04311455312274493</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="F13">
-        <v>-0.1585159084918543</v>
+        <v>0.1297523769433153</v>
       </c>
       <c r="G13">
-        <v>-0.03438506240367392</v>
+        <v>0.132075471698113</v>
       </c>
       <c r="H13">
-        <v>-0.3638991375450805</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="I13">
-        <v>1.737299393538258</v>
+        <v>1.640449438202247</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.1360759559002462</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-0.3090504241489924</v>
+        <v>-0.25</v>
       </c>
       <c r="T13">
-        <v>-0.2345250464777822</v>
+        <v>-0.2247191011235952</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3592,85 +3592,85 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>188.3254583103987</v>
+        <v>231.5893719806763</v>
       </c>
       <c r="AN13">
-        <v>-0.9395655739584167</v>
+        <v>-0.6480446927374302</v>
       </c>
       <c r="AO13">
-        <v>-1.095775818222009</v>
+        <v>-0.8401084010840113</v>
       </c>
       <c r="AP13">
-        <v>0.04446034757946027</v>
+        <v>0.04255319148936174</v>
       </c>
       <c r="AQ13">
-        <v>-0.3580491009089853</v>
+        <v>-0.4044117647058822</v>
       </c>
       <c r="AR13">
-        <v>0.05069415866173815</v>
+        <v>-0.04651162790697674</v>
       </c>
       <c r="AS13">
-        <v>-0.6934462633728979</v>
+        <v>-0.5674876847290643</v>
       </c>
       <c r="AT13">
-        <v>0.2909073239736148</v>
+        <v>0.1338289962825278</v>
       </c>
       <c r="AU13">
-        <v>-1.733149081208238</v>
+        <v>-1.861538461538462</v>
       </c>
       <c r="AV13">
-        <v>1.762456852966082</v>
+        <v>1.405405405405405</v>
       </c>
       <c r="AW13">
-        <v>0.3064905940508562</v>
+        <v>0.2297530155083286</v>
       </c>
       <c r="AX13">
-        <v>0.9137656489579423</v>
+        <v>0.7052424837588758</v>
       </c>
       <c r="AY13">
-        <v>-0.5661693476292143</v>
+        <v>-0.4633431085043985</v>
       </c>
       <c r="AZ13">
-        <v>-0.1451604493405292</v>
+        <v>0</v>
       </c>
       <c r="BA13">
-        <v>-0.05122143790645622</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="BB13">
-        <v>-0.1769512952089154</v>
+        <v>-0.2058172950452771</v>
       </c>
       <c r="BC13">
-        <v>0.1475468481436639</v>
+        <v>0.3809523809523805</v>
       </c>
       <c r="BD13">
-        <v>-0.05108506150802327</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="BE13">
-        <v>-0.05791482661526896</v>
+        <v>0.1185791843547868</v>
       </c>
       <c r="BF13">
-        <v>-0.2224326667032578</v>
+        <v>-0.3448275862068966</v>
       </c>
       <c r="BG13">
-        <v>-0.2327952994810832</v>
+        <v>-0.2888445066155642</v>
       </c>
       <c r="BH13">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
-        <v>-0.3685152057245081</v>
+        <v>-0.208978943186333</v>
       </c>
       <c r="BK13">
-        <v>-0.3538468695987688</v>
+        <v>-0.2941499286576668</v>
       </c>
       <c r="BL13">
-        <v>0.6894257873886748</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BM13">
-        <v>0.4083535445411101</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="BN13">
         <v>0.9999999999999986</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="BR13">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS13">
-        <v>-0.2198529619851067</v>
+        <v>-0.2225886189151447</v>
       </c>
       <c r="BT13">
-        <v>0.4848811985403079</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="BU13">
         <v>1</v>
@@ -3700,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="BW13">
-        <v>0.3041464098784061</v>
+        <v>0.3536179775280898</v>
       </c>
       <c r="BX13">
-        <v>0.2761807945093612</v>
+        <v>0.1869857009099791</v>
       </c>
       <c r="BY13">
-        <v>-0.3416466362516908</v>
+        <v>-0.277324416490851</v>
       </c>
       <c r="BZ13">
-        <v>-0.03355548729249032</v>
+        <v>-0.07746463696752305</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -3723,25 +3723,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-0.05882352941176593</v>
       </c>
       <c r="E14">
-        <v>4.397886035756436</v>
+        <v>3.764705882352941</v>
       </c>
       <c r="F14">
-        <v>4.454618171214553</v>
+        <v>4.934369409454495</v>
       </c>
       <c r="G14">
-        <v>3.362460768342482</v>
+        <v>2.698113207547171</v>
       </c>
       <c r="H14">
-        <v>-0.4002890512995886</v>
+        <v>-0.3461538461538461</v>
       </c>
       <c r="I14">
-        <v>-0.003184125680497506</v>
+        <v>-0.06741573033707865</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3765,16 +3765,16 @@
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>1.043248995235221</v>
+        <v>1.053435114503817</v>
       </c>
       <c r="R14">
-        <v>1.627627255648357</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>2.463217327316884</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>2.992747680794945</v>
+        <v>2.96629213483146</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3831,85 +3831,85 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.6076428683016832</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="AN14">
-        <v>0.5983896320390862</v>
+        <v>0.5661080074487893</v>
       </c>
       <c r="AO14">
-        <v>-0.09668132556236302</v>
+        <v>0.08130081300812984</v>
       </c>
       <c r="AP14">
-        <v>-1.155969037065966</v>
+        <v>-1.106382978723404</v>
       </c>
       <c r="AQ14">
-        <v>2.535664704031742</v>
+        <v>2.992647058823529</v>
       </c>
       <c r="AR14">
-        <v>-1.064577331896501</v>
+        <v>-1.069767441860465</v>
       </c>
       <c r="AS14">
-        <v>-0.1999496951008569</v>
+        <v>-0.110344827586207</v>
       </c>
       <c r="AT14">
-        <v>-0.3700545661685051</v>
+        <v>-0.5204460966542755</v>
       </c>
       <c r="AU14">
-        <v>12.28784042403914</v>
+        <v>12.52615384615385</v>
       </c>
       <c r="AV14">
-        <v>-4.659150241544792</v>
+        <v>-3.945945945945946</v>
       </c>
       <c r="AW14">
-        <v>-0.3789103124763749</v>
+        <v>-0.3790924755887421</v>
       </c>
       <c r="AX14">
-        <v>-0.4275623893165685</v>
+        <v>-0.2743616860552953</v>
       </c>
       <c r="AY14">
-        <v>-0.8089808492266585</v>
+        <v>-0.6862170087976537</v>
       </c>
       <c r="AZ14">
-        <v>1.104839550659473</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="BA14">
-        <v>0.8471334203671917</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="BB14">
-        <v>-0.6738552499023727</v>
+        <v>-0.6827217132431596</v>
       </c>
       <c r="BC14">
-        <v>0.7475468481436636</v>
+        <v>0.9523809523809517</v>
       </c>
       <c r="BD14">
-        <v>0.5108506150802328</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="BE14">
-        <v>-0.3989350383765624</v>
+        <v>-0.1973998785456106</v>
       </c>
       <c r="BF14">
-        <v>0.6354239816295912</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="BG14">
-        <v>-0.1461320125518626</v>
+        <v>-0.2089343765367163</v>
       </c>
       <c r="BH14">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BI14">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ14">
-        <v>1.370304114490162</v>
+        <v>1.335717123559793</v>
       </c>
       <c r="BK14">
-        <v>0.1104362841422911</v>
+        <v>0.1580507079354624</v>
       </c>
       <c r="BL14">
-        <v>1.149042978981124</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="BM14">
-        <v>1.22506063362333</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BN14">
         <v>0</v>
@@ -3924,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS14">
-        <v>9.205550944386884</v>
+        <v>8.559544163736929</v>
       </c>
       <c r="BT14">
-        <v>-2.677387487592135</v>
+        <v>-2.191304347826087</v>
       </c>
       <c r="BU14">
         <v>1</v>
@@ -3939,16 +3939,16 @@
         <v>1</v>
       </c>
       <c r="BW14">
-        <v>0.4159124870033873</v>
+        <v>0.4662771535580524</v>
       </c>
       <c r="BX14">
-        <v>-0.5440111160486453</v>
+        <v>-0.5927072048533666</v>
       </c>
       <c r="BY14">
-        <v>-0.2095120854226324</v>
+        <v>-0.1556201318949618</v>
       </c>
       <c r="BZ14">
-        <v>-0.3379572134508192</v>
+        <v>-0.2986170675324999</v>
       </c>
       <c r="CA14">
         <v>0</v>
@@ -3962,25 +3962,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.7659574468085106</v>
+        <v>-0.7272727272727273</v>
       </c>
       <c r="D15">
-        <v>1.753312416700137</v>
+        <v>1.588235294117644</v>
       </c>
       <c r="E15">
-        <v>1.802496081216655</v>
+        <v>1.647058823529412</v>
       </c>
       <c r="F15">
-        <v>0.8122453064104971</v>
+        <v>1.140808155299951</v>
       </c>
       <c r="G15">
-        <v>2.013713159075626</v>
+        <v>1.679245283018869</v>
       </c>
       <c r="H15">
-        <v>0.727798275090161</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I15">
-        <v>-0.736019291667342</v>
+        <v>-0.7865168539325843</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4004,16 +4004,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>-0.9525316913017232</v>
+        <v>-0.9618320610687023</v>
       </c>
       <c r="R15">
-        <v>-0.5289788580857161</v>
+        <v>-0.65</v>
       </c>
       <c r="S15">
-        <v>-1.124423292227191</v>
+        <v>-0.875</v>
       </c>
       <c r="T15">
-        <v>-0.6890705010232369</v>
+        <v>-0.6741573033707862</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4070,82 +4070,82 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-0.2174040392504385</v>
+        <v>-0.2463768115942029</v>
       </c>
       <c r="AN15">
-        <v>0.09831830738959117</v>
+        <v>0.1713221601489754</v>
       </c>
       <c r="AO15">
-        <v>0.185415942953302</v>
+        <v>0.3414634146341465</v>
       </c>
       <c r="AP15">
-        <v>-1.467191470122188</v>
+        <v>-1.404255319148937</v>
       </c>
       <c r="AQ15">
-        <v>0.6065221674045905</v>
+        <v>0.7279411764705883</v>
       </c>
       <c r="AR15">
-        <v>1.013883173234763</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="AS15">
-        <v>0.1786812926251055</v>
+        <v>0.2403940886699505</v>
       </c>
       <c r="AT15">
-        <v>0.7716068804406105</v>
+        <v>0.6096654275092933</v>
       </c>
       <c r="AU15">
-        <v>0.09593637606312658</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="AV15">
-        <v>0.5948919266913781</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="AW15">
-        <v>-0.2082066904733663</v>
+        <v>-0.2274554853532452</v>
       </c>
       <c r="AX15">
-        <v>-0.4821753754523598</v>
+        <v>-0.3142468650853603</v>
       </c>
       <c r="AY15">
-        <v>-0.5917284530605242</v>
+        <v>-0.4868035190615833</v>
       </c>
       <c r="AZ15">
-        <v>0.854839550659473</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BA15">
-        <v>0.6974076106549171</v>
+        <v>0.8155339805825242</v>
       </c>
       <c r="BB15">
-        <v>-0.3251194104532737</v>
+        <v>-0.3480218964147294</v>
       </c>
       <c r="BC15">
-        <v>0.1475468481436639</v>
+        <v>0.3809523809523805</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BE15">
-        <v>-0.5124220924545007</v>
+        <v>-0.3025535666911525</v>
       </c>
       <c r="BF15">
-        <v>1.031357819321675</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="BG15">
-        <v>0.5036323701507609</v>
+        <v>0.3901977148271291</v>
       </c>
       <c r="BH15">
-        <v>0.4999999999999994</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>0.6568872987477646</v>
+        <v>0.7019467620182759</v>
       </c>
       <c r="BK15">
-        <v>-0.06671253082881205</v>
+        <v>-0.01448798156075067</v>
       </c>
       <c r="BL15">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -4163,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS15">
-        <v>-1.001683700762507</v>
+        <v>-0.9510604626374366</v>
       </c>
       <c r="BT15">
-        <v>2.00277016788388</v>
+        <v>1.669565217391304</v>
       </c>
       <c r="BU15">
         <v>0</v>
@@ -4178,16 +4178,16 @@
         <v>1</v>
       </c>
       <c r="BW15">
-        <v>-0.2840522960123191</v>
+        <v>-0.2392808988764045</v>
       </c>
       <c r="BX15">
-        <v>-0.5427186620521537</v>
+        <v>-0.5914785689705714</v>
       </c>
       <c r="BY15">
-        <v>-0.06533387078054607</v>
+        <v>-0.02282287063943851</v>
       </c>
       <c r="BZ15">
-        <v>0.2930293329820405</v>
+        <v>0.1598041449833786</v>
       </c>
       <c r="CA15">
         <v>1</v>
@@ -4201,25 +4201,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.617021276595745</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="D16">
-        <v>0.5009464047714677</v>
+        <v>0.4117647058823511</v>
       </c>
       <c r="E16">
-        <v>0.7643400994007424</v>
+        <v>0.8</v>
       </c>
       <c r="F16">
-        <v>0.5086975043596321</v>
+        <v>0.8246606263714752</v>
       </c>
       <c r="G16">
-        <v>0.7648727801248337</v>
+        <v>0.7358490566037741</v>
       </c>
       <c r="H16">
-        <v>0.2911193100360644</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="I16">
-        <v>-0.4154039065480976</v>
+        <v>-0.4719101123595505</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4243,16 +4243,16 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.982770792612889</v>
+        <v>0.9923664122137404</v>
       </c>
       <c r="R16">
-        <v>1.424173848692313</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>0.2617105835057468</v>
+        <v>0.1875</v>
       </c>
       <c r="T16">
-        <v>0.2200204080676722</v>
+        <v>0.2247191011235954</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -4309,85 +4309,85 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-0.1152553745058901</v>
+        <v>-0.1207729468599034</v>
       </c>
       <c r="AN16">
-        <v>0.7965311002964333</v>
+        <v>0.7225325884543758</v>
       </c>
       <c r="AO16">
-        <v>0.1383997315340245</v>
+        <v>0.2981029810298104</v>
       </c>
       <c r="AP16">
-        <v>1.289350079804347</v>
+        <v>1.23404255319149</v>
       </c>
       <c r="AQ16">
-        <v>1.044963653001671</v>
+        <v>1.24264705882353</v>
       </c>
       <c r="AR16">
-        <v>-0.2027766346469526</v>
+        <v>-0.2790697674418605</v>
       </c>
       <c r="AS16">
-        <v>0.1233756427325493</v>
+        <v>0.1891625615763545</v>
       </c>
       <c r="AT16">
-        <v>0.8016506027197983</v>
+        <v>0.6394052044609667</v>
       </c>
       <c r="AU16">
-        <v>1.715126780860728</v>
+        <v>1.676923076923077</v>
       </c>
       <c r="AV16">
-        <v>-2.194290952742638</v>
+        <v>-1.891891891891892</v>
       </c>
       <c r="AW16">
-        <v>-0.02715739440956946</v>
+        <v>-0.06662837449741525</v>
       </c>
       <c r="AX16">
-        <v>0.196349603810502</v>
+        <v>0.1812962683184771</v>
       </c>
       <c r="AY16">
-        <v>1.976961642786121</v>
+        <v>1.870967741935484</v>
       </c>
       <c r="AZ16">
-        <v>1.604839550659474</v>
+        <v>1.750000000000003</v>
       </c>
       <c r="BA16">
-        <v>1.333742301932084</v>
+        <v>1.475728155339806</v>
       </c>
       <c r="BB16">
-        <v>0.8445067862069663</v>
+        <v>0.7745288411244065</v>
       </c>
       <c r="BC16">
-        <v>0.9475468481436646</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="BD16">
-        <v>1.328211599208605</v>
+        <v>1.786666666666667</v>
       </c>
       <c r="BE16">
-        <v>0.9348155538938884</v>
+        <v>1.038413271976576</v>
       </c>
       <c r="BF16">
-        <v>0.4374570627835492</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="BG16">
-        <v>-0.8367659081602686</v>
+        <v>-0.8457512616382782</v>
       </c>
       <c r="BH16">
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ16">
-        <v>1.089445438282649</v>
+        <v>1.086213746523639</v>
       </c>
       <c r="BK16">
-        <v>0.9894189538462405</v>
+        <v>1.014158709252553</v>
       </c>
       <c r="BL16">
-        <v>1.149042978981124</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="BM16">
-        <v>1.633414178164439</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="BN16">
         <v>1.999999999999998</v>
@@ -4402,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>-0.2968901995681212</v>
+        <v>-0.25</v>
       </c>
       <c r="BS16">
-        <v>4.036781060247406</v>
+        <v>3.743535863572889</v>
       </c>
       <c r="BT16">
-        <v>-2.044933750365646</v>
+        <v>-1.669565217391304</v>
       </c>
       <c r="BU16">
         <v>0</v>
@@ -4417,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>0.0612335422546439</v>
+        <v>0.1087640449438202</v>
       </c>
       <c r="BX16">
-        <v>-0.2405472079761422</v>
+        <v>-0.3042275780323983</v>
       </c>
       <c r="BY16">
-        <v>0.6670822395715392</v>
+        <v>0.651778724307684</v>
       </c>
       <c r="BZ16">
-        <v>5.142398610810947</v>
+        <v>3.682943832900833</v>
       </c>
       <c r="CA16">
         <v>0</v>
@@ -4440,25 +4440,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.0851063829787234</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.7514196071572016</v>
+        <v>0.6470588235294096</v>
       </c>
       <c r="E17">
-        <v>-0.6775432086769135</v>
+        <v>-0.3764705882352941</v>
       </c>
       <c r="F17">
-        <v>-0.9812966133997051</v>
+        <v>-0.7271804848635983</v>
       </c>
       <c r="G17">
-        <v>-0.5339212139839901</v>
+        <v>-0.2452830188679244</v>
       </c>
       <c r="H17">
-        <v>-0.6550184475811449</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I17">
-        <v>-0.5528105001706309</v>
+        <v>-0.6067415730337079</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4482,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>-0.2872714624560753</v>
+        <v>-0.2900763358778626</v>
       </c>
       <c r="R17">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S17">
-        <v>-0.2275131373411725</v>
+        <v>-0.1875</v>
       </c>
       <c r="T17">
-        <v>-0.1436159555686914</v>
+        <v>-0.1348314606741572</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -4548,85 +4548,85 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>-0.193831270463235</v>
+        <v>-0.2173913043478261</v>
       </c>
       <c r="AN17">
-        <v>0.09831830738959117</v>
+        <v>0.1713221601489754</v>
       </c>
       <c r="AO17">
-        <v>-0.3552704883683888</v>
+        <v>-0.1571815718157183</v>
       </c>
       <c r="AP17">
-        <v>-0.489063823374063</v>
+        <v>-0.4680851063829792</v>
       </c>
       <c r="AQ17">
-        <v>1.270447845594454</v>
+        <v>1.50735294117647</v>
       </c>
       <c r="AR17">
-        <v>0.4055532692939052</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS17">
-        <v>0.1106128004496515</v>
+        <v>0.1773399014778323</v>
       </c>
       <c r="AT17">
-        <v>-0.2198359547725687</v>
+        <v>-0.3717472118959111</v>
       </c>
       <c r="AU17">
-        <v>0.479744472015151</v>
+        <v>0.4092307692307696</v>
       </c>
       <c r="AV17">
-        <v>-0.3132141270778364</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="AW17">
-        <v>-0.6039287232985223</v>
+        <v>-0.5789775990809879</v>
       </c>
       <c r="AX17">
-        <v>-0.52685872774528</v>
+        <v>-0.3468801933826862</v>
       </c>
       <c r="AY17">
-        <v>-0.4511533731883199</v>
+        <v>-0.3577712609970672</v>
       </c>
       <c r="AZ17">
-        <v>-0.8951604493405297</v>
+        <v>-0.7500000000000006</v>
       </c>
       <c r="BA17">
-        <v>-0.08865289033452488</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>0.03240785818116166</v>
+        <v>-0.004884490428154612</v>
       </c>
       <c r="BC17">
-        <v>-0.6524531518563359</v>
+        <v>-0.3809523809523814</v>
       </c>
       <c r="BD17">
-        <v>0.4597655535722094</v>
+        <v>0.88</v>
       </c>
       <c r="BE17">
-        <v>0.6022117992928177</v>
+        <v>0.7302326449304437</v>
       </c>
       <c r="BF17">
-        <v>-0.9483113691387454</v>
+        <v>-1.103448275862069</v>
       </c>
       <c r="BG17">
-        <v>-1.233522772201681</v>
+        <v>-1.211591212309881</v>
       </c>
       <c r="BH17">
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ17">
-        <v>-0.7191413237924866</v>
+        <v>-0.5204608661104488</v>
       </c>
       <c r="BK17">
-        <v>-0.574719437883351</v>
+        <v>-0.5092745033476024</v>
       </c>
       <c r="BL17">
-        <v>-0.2298085957962253</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="BM17">
-        <v>-0.4083535445411101</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BN17">
         <v>0.9999999999999986</v>
@@ -4641,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>0.2968901995681212</v>
+        <v>0.25</v>
       </c>
       <c r="BS17">
-        <v>0.3882376126195379</v>
+        <v>0.34400059286886</v>
       </c>
       <c r="BT17">
-        <v>-0.2318997036497125</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="BU17">
         <v>0</v>
@@ -4656,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="BW17">
-        <v>-0.4640670202327674</v>
+        <v>-0.4207340823970038</v>
       </c>
       <c r="BX17">
-        <v>-0.5108363425121433</v>
+        <v>-0.5611705178368872</v>
       </c>
       <c r="BY17">
-        <v>-0.3979464426886685</v>
+        <v>-0.3291801016413891</v>
       </c>
       <c r="BZ17">
-        <v>3.474058997642824</v>
+        <v>2.470870021374359</v>
       </c>
       <c r="CA17">
         <v>0</v>
@@ -4679,25 +4679,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.5106382978723404</v>
+        <v>-0.4545454545454545</v>
       </c>
       <c r="D18">
-        <v>1.502839214314403</v>
+        <v>1.352941176470585</v>
       </c>
       <c r="E18">
-        <v>1.514119419601124</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="F18">
-        <v>0.6881055727577901</v>
+        <v>1.011515603118776</v>
       </c>
       <c r="G18">
-        <v>1.713991468127436</v>
+        <v>1.452830188679246</v>
       </c>
       <c r="H18">
-        <v>-0.03638991375450805</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I18">
-        <v>-0.323799510799742</v>
+        <v>-0.3820224719101123</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4721,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>-0.6803797795012309</v>
+        <v>-0.6870229007633588</v>
       </c>
       <c r="R18">
-        <v>-0.4475974953032983</v>
+        <v>-0.55</v>
       </c>
       <c r="S18">
-        <v>-0.9613487186115515</v>
+        <v>-0.75</v>
       </c>
       <c r="T18">
-        <v>-0.598161410114146</v>
+        <v>-0.5842696629213481</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -4787,85 +4787,85 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.1702585016760315</v>
+        <v>-0.1884057971014493</v>
       </c>
       <c r="AN18">
-        <v>0.3386778707354879</v>
+        <v>0.3610761996125116</v>
       </c>
       <c r="AO18">
-        <v>0.2513403208260971</v>
+        <v>0.4022617972211461</v>
       </c>
       <c r="AP18">
-        <v>0.0198477510546654</v>
+        <v>0.0189963686125688</v>
       </c>
       <c r="AQ18">
-        <v>0.1362891101777129</v>
+        <v>0.1759137598544882</v>
       </c>
       <c r="AR18">
-        <v>0.1520824759852144</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AS18">
-        <v>0.9487061103599284</v>
+        <v>0.9536945812807883</v>
       </c>
       <c r="AT18">
-        <v>-0.1597485102141944</v>
+        <v>-0.3122676579925655</v>
       </c>
       <c r="AU18">
-        <v>1.409279704398959</v>
+        <v>1.363076923076924</v>
       </c>
       <c r="AV18">
-        <v>-1.221320180847051</v>
+        <v>-1.081081081081081</v>
       </c>
       <c r="AW18">
-        <v>-0.3633918013851922</v>
+        <v>-0.3653072946582424</v>
       </c>
       <c r="AX18">
-        <v>-0.4863127228868894</v>
+        <v>-0.3172684695573349</v>
       </c>
       <c r="AY18">
-        <v>-0.681185322070109</v>
+        <v>-0.5689149560117299</v>
       </c>
       <c r="AZ18">
-        <v>-0.1451604493405292</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>-0.1635157951906622</v>
+        <v>-0.07766990291262135</v>
       </c>
       <c r="BB18">
-        <v>-0.9936219853825589</v>
+        <v>-0.9896183831183095</v>
       </c>
       <c r="BC18">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD18">
-        <v>-0.4086804920641862</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="BE18">
-        <v>-0.7789649036042673</v>
+        <v>-0.5495241120877238</v>
       </c>
       <c r="BF18">
-        <v>0.04152322509146502</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="BG18">
-        <v>0.2988691114750382</v>
+        <v>0.2013904445754313</v>
       </c>
       <c r="BH18">
-        <v>0.4999999999999994</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="BI18">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ18">
-        <v>0.3559928443649376</v>
+        <v>0.4346444179578862</v>
       </c>
       <c r="BK18">
-        <v>-0.2636948009111844</v>
+        <v>-0.206343979804632</v>
       </c>
       <c r="BL18">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM18">
-        <v>1.22506063362333</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BN18">
         <v>0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>-0.2968901995681212</v>
+        <v>-0.25</v>
       </c>
       <c r="BS18">
-        <v>1.821593967044772</v>
+        <v>1.679532306359728</v>
       </c>
       <c r="BT18">
-        <v>-1.159498518248562</v>
+        <v>-0.9391304347826087</v>
       </c>
       <c r="BU18">
         <v>0</v>
@@ -4895,16 +4895,16 @@
         <v>0</v>
       </c>
       <c r="BW18">
-        <v>-0.2880948988019461</v>
+        <v>-0.2433558052434457</v>
       </c>
       <c r="BX18">
-        <v>-0.2451056556816104</v>
+        <v>-0.3085609411044978</v>
       </c>
       <c r="BY18">
-        <v>-0.2080714557799257</v>
+        <v>-0.1542932208112735</v>
       </c>
       <c r="BZ18">
-        <v>-0.9914989658270693</v>
+        <v>-0.7734249762712505</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -4918,25 +4918,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-0.9361702127659575</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="D19">
-        <v>-0.5009464047714677</v>
+        <v>-0.5294117647058829</v>
       </c>
       <c r="E19">
-        <v>-1.600348525846613</v>
+        <v>-1.129411764705882</v>
       </c>
       <c r="F19">
-        <v>-1.445879568321337</v>
+        <v>-1.211047448117548</v>
       </c>
       <c r="G19">
-        <v>-1.832715208092814</v>
+        <v>-1.226415094339623</v>
       </c>
       <c r="H19">
-        <v>-0.1819495687725403</v>
+        <v>-0.1153846153846154</v>
       </c>
       <c r="I19">
-        <v>-0.04898632355467529</v>
+        <v>-0.1123595505617977</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4960,16 +4960,16 @@
         <v>3</v>
       </c>
       <c r="Q19">
-        <v>0.2872714624560753</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="R19">
-        <v>0.2034534069560447</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
-        <v>0.2617105835057468</v>
+        <v>0.1875</v>
       </c>
       <c r="T19">
-        <v>0.2200204080676722</v>
+        <v>0.2247191011235954</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -5026,85 +5026,85 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>0.002608469430127308</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="AN19">
-        <v>-1.118836426191255</v>
+        <v>-0.7895716945996278</v>
       </c>
       <c r="AO19">
-        <v>-1.319102822463577</v>
+        <v>-1.046070460704608</v>
       </c>
       <c r="AP19">
-        <v>-0.3556827806356821</v>
+        <v>-0.3404255319148939</v>
       </c>
       <c r="AQ19">
-        <v>-0.1075111091392254</v>
+        <v>-0.1102941176470588</v>
       </c>
       <c r="AR19">
-        <v>-1.875683870484311</v>
+        <v>-1.813953488372093</v>
       </c>
       <c r="AS19">
-        <v>-0.2595096257543793</v>
+        <v>-0.1655172413793107</v>
       </c>
       <c r="AT19">
-        <v>-1.42158484594006</v>
+        <v>-1.561338289962827</v>
       </c>
       <c r="AU19">
-        <v>-1.043493908794445</v>
+        <v>-1.153846153846154</v>
       </c>
       <c r="AV19">
-        <v>1.43813326233422</v>
+        <v>1.135135135135135</v>
       </c>
       <c r="AW19">
-        <v>-0.2599350607773083</v>
+        <v>-0.2734060884549109</v>
       </c>
       <c r="AX19">
-        <v>-0.5318235446667156</v>
+        <v>-0.3505061187490557</v>
       </c>
       <c r="AY19">
-        <v>0.0344696300065684</v>
+        <v>0.087976539589443</v>
       </c>
       <c r="AZ19">
-        <v>1.854839550659473</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="BA19">
-        <v>1.74548827864084</v>
+        <v>1.902912621359223</v>
       </c>
       <c r="BB19">
-        <v>3.210885131959099</v>
+        <v>3.045664495323796</v>
       </c>
       <c r="BC19">
-        <v>1.747546848143664</v>
+        <v>1.904761904761904</v>
       </c>
       <c r="BD19">
-        <v>1.890147275796861</v>
+        <v>2.373333333333334</v>
       </c>
       <c r="BE19">
-        <v>2.805853066032581</v>
+        <v>2.772060309152507</v>
       </c>
       <c r="BF19">
-        <v>0.4374570627835492</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="BG19">
-        <v>-1.166439243508792</v>
+        <v>-1.149735105832232</v>
       </c>
       <c r="BH19">
-        <v>-2</v>
+        <v>-1.333333333333334</v>
       </c>
       <c r="BI19">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ19">
-        <v>-0.4329159212880143</v>
+        <v>-0.2661899086213746</v>
       </c>
       <c r="BK19">
-        <v>0.5386586104083174</v>
+        <v>0.5751289649873779</v>
       </c>
       <c r="BL19">
-        <v>1.608660170573575</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BM19">
-        <v>0.4083535445411101</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="BN19">
         <v>1.999999999999998</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>2.37512159654497</v>
+        <v>2</v>
       </c>
       <c r="BS19">
-        <v>-0.8713785776329402</v>
+        <v>-0.8296484886837213</v>
       </c>
       <c r="BT19">
-        <v>1.749788672993285</v>
+        <v>1.460869565217391</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>1</v>
       </c>
       <c r="BW19">
-        <v>-0.4135344853624302</v>
+        <v>-0.3697977528089888</v>
       </c>
       <c r="BX19">
-        <v>0.6491387507198293</v>
+        <v>0.5415279353090744</v>
       </c>
       <c r="BY19">
-        <v>-0.4128137406014017</v>
+        <v>-0.3428738240250521</v>
       </c>
       <c r="BZ19">
-        <v>6.827956307334428</v>
+        <v>4.907526840849298</v>
       </c>
       <c r="CA19">
         <v>1</v>
@@ -5157,25 +5157,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3404255319148936</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D20">
-        <v>-1.001892809542935</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>-1.369647196554189</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="F20">
-        <v>-1.004671007132865</v>
+        <v>-0.7515251079147689</v>
       </c>
       <c r="G20">
-        <v>-1.682854362618719</v>
+        <v>-1.113207547169812</v>
       </c>
       <c r="H20">
-        <v>0.5458487063176208</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I20">
-        <v>0.2258268636903914</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -5199,16 +5199,16 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.1058368545890804</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-0.4721249977646321</v>
+        <v>-0.375</v>
       </c>
       <c r="T20">
-        <v>-0.3254341373868732</v>
+        <v>-0.3146067415730335</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5265,85 +5265,85 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.04975400700453426</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="AN20">
-        <v>0.07679397354493778</v>
+        <v>0.1543295793798591</v>
       </c>
       <c r="AO20">
-        <v>0.04961650443855355</v>
+        <v>0.2162231547434792</v>
       </c>
       <c r="AP20">
-        <v>-0.03953107124890354</v>
+        <v>-0.03783535973549885</v>
       </c>
       <c r="AQ20">
-        <v>0.5451337566338562</v>
+        <v>0.6558746016368541</v>
       </c>
       <c r="AR20">
-        <v>-0.354859110632167</v>
+        <v>-0.4186046511627907</v>
       </c>
       <c r="AS20">
-        <v>-0.2510010642324473</v>
+        <v>-0.1576354679802957</v>
       </c>
       <c r="AT20">
-        <v>0.456147796509145</v>
+        <v>0.2973977695167289</v>
       </c>
       <c r="AU20">
-        <v>-0.503763773861911</v>
+        <v>-0.6</v>
       </c>
       <c r="AV20">
-        <v>0.3354330541858883</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="AW20">
-        <v>0.03233023143996373</v>
+        <v>-0.01378518093049975</v>
       </c>
       <c r="AX20">
-        <v>0.7317223618386379</v>
+        <v>0.5722918869919926</v>
       </c>
       <c r="AY20">
-        <v>-0.144444108012601</v>
+        <v>-0.07624633431085025</v>
       </c>
       <c r="AZ20">
-        <v>-1.145160449340531</v>
+        <v>-1.000000000000002</v>
       </c>
       <c r="BA20">
-        <v>-0.2009472476187309</v>
+        <v>-0.116504854368932</v>
       </c>
       <c r="BB20">
-        <v>0.5738664693698008</v>
+        <v>0.5147813353478773</v>
       </c>
       <c r="BC20">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD20">
-        <v>-0.3065103690481397</v>
+        <v>0.08</v>
       </c>
       <c r="BE20">
-        <v>0.2253954004851325</v>
+        <v>0.3810859126420408</v>
       </c>
       <c r="BF20">
-        <v>-0.1564436937545771</v>
+        <v>-0.2758620689655172</v>
       </c>
       <c r="BG20">
-        <v>0.05872772309523386</v>
+        <v>-0.02003814719282084</v>
       </c>
       <c r="BH20">
-        <v>2</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="BI20">
-        <v>2.068706789972626</v>
+        <v>1.4</v>
       </c>
       <c r="BJ20">
-        <v>1.282647584973167</v>
+        <v>1.257846642828764</v>
       </c>
       <c r="BK20">
-        <v>2.986287275276236</v>
+        <v>2.959060476347274</v>
       </c>
       <c r="BL20">
-        <v>0.4596171915924495</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="BM20">
-        <v>1.22506063362333</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BN20">
         <v>-0.3333333333333333</v>
@@ -5358,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS20">
-        <v>-0.4804632082442401</v>
+        <v>-0.4654125668225754</v>
       </c>
       <c r="BT20">
-        <v>0.7378626934309033</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="BU20">
         <v>0</v>
@@ -5373,16 +5373,16 @@
         <v>1</v>
       </c>
       <c r="BW20">
-        <v>-0.3759620594353089</v>
+        <v>-0.3319250936329588</v>
       </c>
       <c r="BX20">
-        <v>-0.003776071274466599</v>
+        <v>-0.07914760199334701</v>
       </c>
       <c r="BY20">
-        <v>-0.3442397696085628</v>
+        <v>-0.2797128564414899</v>
       </c>
       <c r="BZ20">
-        <v>-0.785333199104841</v>
+        <v>-0.6236424471597108</v>
       </c>
       <c r="CA20">
         <v>0</v>
@@ -5396,25 +5396,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-0.0851063829787234</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1.252366011928669</v>
+        <v>1.117647058823527</v>
       </c>
       <c r="E21">
-        <v>0.9373660963700612</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F21">
-        <v>0.2963023866715696</v>
+        <v>0.6034493668601912</v>
       </c>
       <c r="G21">
-        <v>1.114548086231055</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.5458487063176208</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I21">
-        <v>-1.010832478912409</v>
+        <v>-1.056179775280899</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5438,16 +5438,16 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>-0.2570323611449095</v>
+        <v>-0.2595419847328244</v>
       </c>
       <c r="R21">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>-1.124423292227191</v>
+        <v>-0.875</v>
       </c>
       <c r="T21">
-        <v>-0.6890705010232369</v>
+        <v>-0.6741573033707862</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5504,85 +5504,85 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0.1126147237704102</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="AN21">
-        <v>1.390955505068474</v>
+        <v>1.191806331471135</v>
       </c>
       <c r="AO21">
-        <v>0.6320699514364377</v>
+        <v>0.7533875338753391</v>
       </c>
       <c r="AP21">
-        <v>-1.155969037065966</v>
+        <v>-1.106382978723404</v>
       </c>
       <c r="AQ21">
-        <v>3.149482783867653</v>
+        <v>3.713235294117647</v>
       </c>
       <c r="AR21">
-        <v>0.5576357452791196</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="AS21">
-        <v>-0.3488495217346625</v>
+        <v>-0.2482758620689658</v>
       </c>
       <c r="AT21">
-        <v>0.6213882690446741</v>
+        <v>0.4609665427509289</v>
       </c>
       <c r="AU21">
-        <v>0.0659513685668747</v>
+        <v>-0.01538461538461539</v>
       </c>
       <c r="AV21">
-        <v>-0.118619972698719</v>
+        <v>-0.1621621621621622</v>
       </c>
       <c r="AW21">
-        <v>-0.5987558862681281</v>
+        <v>-0.5743825387708213</v>
       </c>
       <c r="AX21">
-        <v>-0.5069994600595377</v>
+        <v>-0.332376491917208</v>
       </c>
       <c r="AY21">
-        <v>0.379517553329252</v>
+        <v>0.404692082111437</v>
       </c>
       <c r="AZ21">
-        <v>0.1048395506594703</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="BA21">
-        <v>0.1359358242338871</v>
+        <v>0.2330097087378641</v>
       </c>
       <c r="BB21">
-        <v>-0.4908529559570228</v>
+        <v>-0.5070849494409373</v>
       </c>
       <c r="BC21">
-        <v>0.1475468481436639</v>
+        <v>0.3809523809523805</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BE21">
-        <v>-0.3141586697372739</v>
+        <v>-0.1188486472845976</v>
       </c>
       <c r="BF21">
-        <v>0.04152322509146502</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="BG21">
-        <v>-0.09482080996732255</v>
+        <v>-0.1616215521756753</v>
       </c>
       <c r="BH21">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BI21">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ21">
-        <v>0.7567084078711991</v>
+        <v>0.7906237584425903</v>
       </c>
       <c r="BK21">
-        <v>0.4304761279832164</v>
+        <v>0.4697618263637365</v>
       </c>
       <c r="BL21">
-        <v>1.149042978981124</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="BM21">
-        <v>0.4083535445411101</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="BN21">
         <v>0</v>
@@ -5597,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS21">
-        <v>-0.08954783885553999</v>
+        <v>-0.1011766449614294</v>
       </c>
       <c r="BT21">
-        <v>0.2740632861314783</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="BU21">
         <v>1</v>
@@ -5612,16 +5612,16 @@
         <v>1</v>
       </c>
       <c r="BW21">
-        <v>0.09048296243841557</v>
+        <v>0.1382471910112359</v>
       </c>
       <c r="BX21">
-        <v>0.2974782569130341</v>
+        <v>0.2072315484160926</v>
       </c>
       <c r="BY21">
-        <v>0.1104229456296711</v>
+        <v>0.1390602815705319</v>
       </c>
       <c r="BZ21">
-        <v>1.449112847853125</v>
+        <v>0.9997161996110175</v>
       </c>
       <c r="CA21">
         <v>0</v>
@@ -5635,25 +5635,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1702127659574468</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D22">
-        <v>0.7514196071572016</v>
+        <v>0.6470588235294096</v>
       </c>
       <c r="E22">
-        <v>-0.3314912147382761</v>
+        <v>-0.09411764705882353</v>
       </c>
       <c r="F22">
-        <v>-0.6542010390776049</v>
+        <v>-0.3865077577125575</v>
       </c>
       <c r="G22">
-        <v>-0.184245907877768</v>
+        <v>0.01886792452830233</v>
       </c>
       <c r="H22">
-        <v>-1.637546118952862</v>
+        <v>-1.653846153846154</v>
       </c>
       <c r="I22">
-        <v>-1.102436874660764</v>
+        <v>-1.146067415730337</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5677,16 +5677,16 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.5291842729454018</v>
+        <v>0.5343511450381679</v>
       </c>
       <c r="R22">
-        <v>0.6103602208681339</v>
+        <v>0.75</v>
       </c>
       <c r="S22">
-        <v>0.3432478703135667</v>
+        <v>0.25</v>
       </c>
       <c r="T22">
-        <v>0.2654749535222179</v>
+        <v>0.2696629213483148</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5743,79 +5743,79 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.3719151804296484</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AN22">
-        <v>-0.01490538875746437</v>
+        <v>0.08193668528864016</v>
       </c>
       <c r="AO22">
-        <v>-0.1554515898364596</v>
+        <v>0.02710027100270995</v>
       </c>
       <c r="AP22">
-        <v>1.91179494591679</v>
+        <v>1.829787234042553</v>
       </c>
       <c r="AQ22">
-        <v>-1.009447879510361</v>
+        <v>-1.169117647058823</v>
       </c>
       <c r="AR22">
-        <v>0.4055532692939052</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS22">
-        <v>-0.2935438718421059</v>
+        <v>-0.1970443349753695</v>
       </c>
       <c r="AT22">
-        <v>-0.1297047879350078</v>
+        <v>-0.2825278810408933</v>
       </c>
       <c r="AU22">
-        <v>0.5037324780121519</v>
+        <v>0.4338461538461537</v>
       </c>
       <c r="AV22">
-        <v>-0.5078082814569538</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="AW22">
-        <v>-0.596169467752931</v>
+        <v>-0.5720850086157381</v>
       </c>
       <c r="AX22">
-        <v>-0.3464703795997874</v>
+        <v>-0.2151382384045928</v>
       </c>
       <c r="AY22">
-        <v>-0.4511533731883199</v>
+        <v>-0.3577712609970672</v>
       </c>
       <c r="AZ22">
-        <v>0.1048395506594703</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="BA22">
-        <v>0.02364146694968111</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="BB22">
-        <v>-0.02266898404359747</v>
+        <v>-0.05774458371032459</v>
       </c>
       <c r="BC22">
-        <v>-0.05245315185633537</v>
+        <v>0.1904761904761907</v>
       </c>
       <c r="BD22">
-        <v>-0.2043402460320931</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="BE22">
-        <v>-0.1607070442836616</v>
+        <v>0.02333500969264742</v>
       </c>
       <c r="BF22">
-        <v>0.1075121980401457</v>
+        <v>0</v>
       </c>
       <c r="BG22">
-        <v>0.1397577693677122</v>
+        <v>0.05467770732141138</v>
       </c>
       <c r="BH22">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22">
-        <v>-0.24865831842576</v>
+        <v>-0.1025029797377829</v>
       </c>
       <c r="BK22">
-        <v>-0.1329743013141866</v>
+        <v>-0.07902535396773122</v>
       </c>
       <c r="BL22">
         <v>0</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS22">
-        <v>-0.1764179209419178</v>
+        <v>-0.182117960930573</v>
       </c>
       <c r="BT22">
-        <v>0.3583904510950102</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="BU22">
         <v>0</v>
@@ -5851,16 +5851,16 @@
         <v>1</v>
       </c>
       <c r="BW22">
-        <v>1.893483806612047</v>
+        <v>1.955655430711611</v>
       </c>
       <c r="BX22">
-        <v>-0.1005760490199987</v>
+        <v>-0.1711678413479308</v>
       </c>
       <c r="BY22">
-        <v>-0.2820045690436335</v>
+        <v>-0.2223902976261561</v>
       </c>
       <c r="BZ22">
-        <v>-0.8982956354824815</v>
+        <v>-0.7057113555155816</v>
       </c>
       <c r="CA22">
         <v>0</v>
@@ -5874,25 +5874,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-1.106382978723404</v>
+        <v>-1.090909090909091</v>
       </c>
       <c r="D23">
-        <v>1.753312416700137</v>
+        <v>1.588235294117644</v>
       </c>
       <c r="E23">
-        <v>1.225742757985592</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="F23">
-        <v>0.3129729349985118</v>
+        <v>0.6208118798609027</v>
       </c>
       <c r="G23">
-        <v>1.514177007495308</v>
+        <v>1.301886792452831</v>
       </c>
       <c r="H23">
-        <v>0.9097478438627014</v>
+        <v>1.038461538461539</v>
       </c>
       <c r="I23">
-        <v>-0.3696017086739198</v>
+        <v>-0.4269662921348314</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5916,16 +5916,16 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>-1.013009893924055</v>
+        <v>-1.022900763358779</v>
       </c>
       <c r="R23">
-        <v>-0.569669539476925</v>
+        <v>-0.7</v>
       </c>
       <c r="S23">
-        <v>-0.6351995713802719</v>
+        <v>-0.5</v>
       </c>
       <c r="T23">
-        <v>-0.416343228295964</v>
+        <v>-0.4044943820224716</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -5982,85 +5982,85 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-0.02882188895281066</v>
+        <v>-0.01449275362318841</v>
       </c>
       <c r="AN23">
-        <v>1.38152019705622</v>
+        <v>1.184357541899441</v>
       </c>
       <c r="AO23">
-        <v>1.255034752741864</v>
+        <v>1.327913279132792</v>
       </c>
       <c r="AP23">
-        <v>0.7113655612713633</v>
+        <v>0.6808510638297869</v>
       </c>
       <c r="AQ23">
-        <v>0.5188338702851745</v>
+        <v>0.625</v>
       </c>
       <c r="AR23">
-        <v>1.36874228386693</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="AS23">
-        <v>2.139904723430372</v>
+        <v>2.057142857142857</v>
       </c>
       <c r="AT23">
-        <v>1.297372020326388</v>
+        <v>1.130111524163569</v>
       </c>
       <c r="AU23">
-        <v>-0.4258027543716563</v>
+        <v>-0.5200000000000001</v>
       </c>
       <c r="AV23">
-        <v>1.113809671702358</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="AW23">
-        <v>-0.05302157956154044</v>
+        <v>-0.08960367604824811</v>
       </c>
       <c r="AX23">
-        <v>0.09374338743416671</v>
+        <v>0.1063604774135065</v>
       </c>
       <c r="AY23">
-        <v>0.7117859239362807</v>
+        <v>0.7096774193548386</v>
       </c>
       <c r="AZ23">
-        <v>0.1048395506594703</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="BA23">
-        <v>0.02364146694968111</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="BB23">
-        <v>-0.7505392947732183</v>
+        <v>-0.7563193561251764</v>
       </c>
       <c r="BC23">
-        <v>-1.052453151856335</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="BD23">
-        <v>-1.123871353176512</v>
+        <v>-0.7733333333333333</v>
       </c>
       <c r="BE23">
-        <v>-1.327092041677437</v>
+        <v>-1.057402218620221</v>
       </c>
       <c r="BF23">
-        <v>1.295313711116398</v>
+        <v>1.241379310344828</v>
       </c>
       <c r="BG23">
-        <v>1.812789901228903</v>
+        <v>1.597340350527048</v>
       </c>
       <c r="BH23">
         <v>0</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23">
-        <v>-0.005366726296958552</v>
+        <v>0.1136273341279301</v>
       </c>
       <c r="BK23">
-        <v>-0.8406680405117248</v>
+        <v>-0.7683020524640548</v>
       </c>
       <c r="BL23">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM23">
-        <v>0.8167070890822202</v>
+        <v>0.6666666666666676</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -6075,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS23">
-        <v>-0.08954783885553999</v>
+        <v>-0.1011766449614294</v>
       </c>
       <c r="BT23">
-        <v>0.6956991109491374</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="BU23">
         <v>0</v>
@@ -6090,16 +6090,16 @@
         <v>1</v>
       </c>
       <c r="BW23">
-        <v>-0.1002327691663395</v>
+        <v>-0.05399250936329591</v>
       </c>
       <c r="BX23">
-        <v>-0.3915122702219443</v>
+        <v>-0.4477383668319292</v>
       </c>
       <c r="BY23">
-        <v>-0.1961430423383142</v>
+        <v>-0.1433063970383344</v>
       </c>
       <c r="BZ23">
-        <v>-1.001564925504285</v>
+        <v>-0.7807380473128628</v>
       </c>
       <c r="CA23">
         <v>0</v>
@@ -6113,25 +6113,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D24">
-        <v>1.252366011928669</v>
+        <v>1.117647058823527</v>
       </c>
       <c r="E24">
-        <v>0.7643400994007424</v>
+        <v>0.8</v>
       </c>
       <c r="F24">
-        <v>0.1398645141800011</v>
+        <v>0.4405180378079394</v>
       </c>
       <c r="G24">
-        <v>0.9646872407569607</v>
+        <v>0.8867924528301894</v>
       </c>
       <c r="H24">
-        <v>0.1455596550180322</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I24">
-        <v>0.9128598318030582</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -6155,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.1965541585225778</v>
+        <v>0.1984732824427481</v>
       </c>
       <c r="R24">
-        <v>0.2034534069560447</v>
+        <v>0.25</v>
       </c>
       <c r="S24">
-        <v>-0.06443856372553274</v>
+        <v>-0.0625</v>
       </c>
       <c r="T24">
-        <v>-0.05270686465960043</v>
+        <v>-0.04494382022471893</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6221,85 +6221,85 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>-0.162400912080297</v>
+        <v>-0.178743961352657</v>
       </c>
       <c r="AN24">
-        <v>1.107896264700836</v>
+        <v>0.9683426443202976</v>
       </c>
       <c r="AO24">
-        <v>0.2441862072273986</v>
+        <v>0.3956639566395664</v>
       </c>
       <c r="AP24">
-        <v>0.8002862564302838</v>
+        <v>0.7659574468085104</v>
       </c>
       <c r="AQ24">
-        <v>2.022061820903734</v>
+        <v>2.389705882352941</v>
       </c>
       <c r="AR24">
-        <v>0.4055532692939052</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS24">
-        <v>-0.2850353103201744</v>
+        <v>-0.1891625615763549</v>
       </c>
       <c r="AT24">
-        <v>0.3209510462528014</v>
+        <v>0.1635687732342</v>
       </c>
       <c r="AU24">
-        <v>2.194886900800758</v>
+        <v>2.169230769230769</v>
       </c>
       <c r="AV24">
-        <v>-1.999696798363521</v>
+        <v>-1.72972972972973</v>
       </c>
       <c r="AW24">
-        <v>0.1538919016542274</v>
+        <v>0.09419873635841473</v>
       </c>
       <c r="AX24">
-        <v>0.3866675857988656</v>
+        <v>0.3202900740293095</v>
       </c>
       <c r="AY24">
-        <v>-0.5278306894822495</v>
+        <v>-0.4281524926686214</v>
       </c>
       <c r="AZ24">
-        <v>-0.3951604493405286</v>
+        <v>-0.2499999999999994</v>
       </c>
       <c r="BA24">
-        <v>-0.3132416049029368</v>
+        <v>-0.2330097087378641</v>
       </c>
       <c r="BB24">
-        <v>-0.8680804853935808</v>
+        <v>-0.869129714339515</v>
       </c>
       <c r="BC24">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD24">
-        <v>-0.4086804920641862</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="BE24">
-        <v>-0.6294515892044266</v>
+        <v>-0.4109895755827049</v>
       </c>
       <c r="BF24">
-        <v>-0.2224326667032578</v>
+        <v>-0.3448275862068966</v>
       </c>
       <c r="BG24">
-        <v>0.1152982352761742</v>
+        <v>0.03212415990612412</v>
       </c>
       <c r="BH24">
-        <v>-0.5000000000000006</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="BI24">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ24">
-        <v>-0.2593917710196781</v>
+        <v>-0.1120381406436235</v>
       </c>
       <c r="BK24">
-        <v>-0.6423334893990394</v>
+        <v>-0.5751289649873785</v>
       </c>
       <c r="BL24">
         <v>0</v>
       </c>
       <c r="BM24">
-        <v>1.22506063362333</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BN24">
         <v>-0.3333333333333333</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>0.5937803991362425</v>
+        <v>0.5</v>
       </c>
       <c r="BS24">
-        <v>0.5619777767922935</v>
+        <v>0.5058832248071471</v>
       </c>
       <c r="BT24">
-        <v>-0.400554033576776</v>
+        <v>-0.3130434782608696</v>
       </c>
       <c r="BU24">
         <v>1</v>
@@ -6329,16 +6329,16 @@
         <v>1</v>
       </c>
       <c r="BW24">
-        <v>0.3358927317851826</v>
+        <v>0.3856179775280899</v>
       </c>
       <c r="BX24">
-        <v>0.5139409255767903</v>
+        <v>0.4130058372711352</v>
       </c>
       <c r="BY24">
-        <v>-0.04689381135390033</v>
+        <v>-0.005838408768228487</v>
       </c>
       <c r="BZ24">
-        <v>0.2626981564024595</v>
+        <v>0.1377680891859129</v>
       </c>
       <c r="CA24">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1702127659574468</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D25">
-        <v>2.254258821471602</v>
+        <v>2.058823529411758</v>
       </c>
       <c r="E25">
-        <v>0.64898943475453</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="F25">
-        <v>-0.3943065407358063</v>
+        <v>-0.1158255031294814</v>
       </c>
       <c r="G25">
-        <v>1.164501701389087</v>
+        <v>1.037735849056605</v>
       </c>
       <c r="H25">
-        <v>2.074225084006959</v>
+        <v>2.269230769230769</v>
       </c>
       <c r="I25">
-        <v>0.6380466445579914</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -6394,16 +6394,16 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>-0.2872714624560753</v>
+        <v>-0.2900763358778626</v>
       </c>
       <c r="R25">
-        <v>-0.4069068139120893</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>-0.553662284572452</v>
+        <v>-0.4375</v>
       </c>
       <c r="T25">
-        <v>-0.3708886828414187</v>
+        <v>-0.3595505617977526</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -6460,85 +6460,85 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>-0.1545433224845625</v>
+        <v>-0.1690821256038647</v>
       </c>
       <c r="AN25">
-        <v>1.74949720953415</v>
+        <v>1.47486033519553</v>
       </c>
       <c r="AO25">
-        <v>1.325559069870781</v>
+        <v>1.392953929539296</v>
       </c>
       <c r="AP25">
-        <v>-1.200429384645426</v>
+        <v>-1.148936170212766</v>
       </c>
       <c r="AQ25">
-        <v>2.473030206089303</v>
+        <v>2.919117647058824</v>
       </c>
       <c r="AR25">
-        <v>0.8618006972495484</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="AS25">
-        <v>0.5743294033949314</v>
+        <v>0.6068965517241377</v>
       </c>
       <c r="AT25">
-        <v>0.3810384908111768</v>
+        <v>0.2230483271375467</v>
       </c>
       <c r="AU25">
-        <v>-0.6416948083446695</v>
+        <v>-0.7415384615384614</v>
       </c>
       <c r="AV25">
-        <v>0.5300272085650057</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="AW25">
-        <v>2.168711924992767</v>
+        <v>1.883974727168294</v>
       </c>
       <c r="AX25">
-        <v>5.753634677870721</v>
+        <v>4.239915395074784</v>
       </c>
       <c r="AY25">
-        <v>0.0344696300065684</v>
+        <v>0.087976539589443</v>
       </c>
       <c r="AZ25">
-        <v>1.854839550659473</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="BA25">
-        <v>1.708056826212771</v>
+        <v>1.864077669902913</v>
       </c>
       <c r="BB25">
-        <v>0.9962316807988504</v>
+        <v>0.9201470675402451</v>
       </c>
       <c r="BC25">
-        <v>0.9475468481436646</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="BD25">
-        <v>0.8173609841283723</v>
+        <v>1.253333333333333</v>
       </c>
       <c r="BE25">
-        <v>0.3645131200809628</v>
+        <v>0.5099882039276392</v>
       </c>
       <c r="BF25">
-        <v>1.757236521757163</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="BG25">
-        <v>0.2227454743211442</v>
+        <v>0.1311986717661354</v>
       </c>
       <c r="BH25">
-        <v>2</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="BI25">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ25">
-        <v>2.500894454382828</v>
+        <v>2.340087405641636</v>
       </c>
       <c r="BK25">
-        <v>2.346207587594387</v>
+        <v>2.335638239490727</v>
       </c>
       <c r="BL25">
-        <v>0.2298085957962253</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="BM25">
-        <v>0.8167070890822202</v>
+        <v>0.6666666666666676</v>
       </c>
       <c r="BN25">
         <v>0.9999999999999986</v>
@@ -6553,13 +6553,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>0.2968901995681212</v>
+        <v>0.25</v>
       </c>
       <c r="BS25">
-        <v>0.1710624074035934</v>
+        <v>0.1416473029460012</v>
       </c>
       <c r="BT25">
-        <v>-0.02108179124088295</v>
+        <v>0</v>
       </c>
       <c r="BU25">
         <v>1</v>
@@ -6568,16 +6568,16 @@
         <v>1</v>
       </c>
       <c r="BW25">
-        <v>118.3798941888929</v>
+        <v>119.3728838951311</v>
       </c>
       <c r="BX25">
-        <v>2.121264991421772</v>
+        <v>1.940964300735397</v>
       </c>
       <c r="BY25">
-        <v>2.115203156420312</v>
+        <v>1.985589745631145</v>
       </c>
       <c r="BZ25">
-        <v>0.09077810613428493</v>
+        <v>0.01286558794357714</v>
       </c>
       <c r="CA25">
         <v>1</v>
@@ -6591,25 +6591,25 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.5106382978723404</v>
+        <v>-0.4545454545454545</v>
       </c>
       <c r="D26">
-        <v>-0.2504732023857338</v>
+        <v>-0.2941176470588244</v>
       </c>
       <c r="E26">
-        <v>1.225742757985592</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="F26">
-        <v>1.395409256908179</v>
+        <v>1.748178199373326</v>
       </c>
       <c r="G26">
-        <v>0.9646872407569607</v>
+        <v>0.8867924528301894</v>
       </c>
       <c r="H26">
-        <v>-1.637546118952862</v>
+        <v>-1.653846153846154</v>
       </c>
       <c r="I26">
-        <v>-0.6444148959189865</v>
+        <v>-0.6966292134831461</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6633,16 +6633,16 @@
         <v>4</v>
       </c>
       <c r="Q26">
-        <v>1.436357312280376</v>
+        <v>1.450381679389313</v>
       </c>
       <c r="R26">
-        <v>2.644894290428581</v>
+        <v>3.25</v>
       </c>
       <c r="S26">
-        <v>0.3432478703135667</v>
+        <v>0.25</v>
       </c>
       <c r="T26">
-        <v>0.2654749535222179</v>
+        <v>0.2696629213483148</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -6699,85 +6699,85 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>-0.1545433224845625</v>
+        <v>-0.1690821256038647</v>
       </c>
       <c r="AN26">
-        <v>1.022978492590544</v>
+        <v>0.9013035381750464</v>
       </c>
       <c r="AO26">
-        <v>0.8083807442587282</v>
+        <v>0.9159891598915992</v>
       </c>
       <c r="AP26">
-        <v>0.04446034757946027</v>
+        <v>0.04255319148936174</v>
       </c>
       <c r="AQ26">
-        <v>0.9071677575283025</v>
+        <v>1.080882352941177</v>
       </c>
       <c r="AR26">
-        <v>-0.5576357452791196</v>
+        <v>-0.6046511627906976</v>
       </c>
       <c r="AS26">
-        <v>1.352862782651686</v>
+        <v>1.32807881773399</v>
       </c>
       <c r="AT26">
-        <v>-0.7155573723791594</v>
+        <v>-0.8624535315985143</v>
       </c>
       <c r="AU26">
-        <v>0.1139273805608775</v>
+        <v>0.03384615384615367</v>
       </c>
       <c r="AV26">
-        <v>0.4651624904386332</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="AW26">
-        <v>0.3478732902940098</v>
+        <v>0.2665134979896612</v>
       </c>
       <c r="AX26">
-        <v>1.306813655238259</v>
+        <v>0.9922949085964645</v>
       </c>
       <c r="AY26">
-        <v>-0.6684057693544539</v>
+        <v>-0.5571847507331374</v>
       </c>
       <c r="AZ26">
-        <v>1.354839550659472</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="BA26">
-        <v>1.146585039791741</v>
+        <v>1.281553398058253</v>
       </c>
       <c r="BB26">
-        <v>0.5564625499336754</v>
+        <v>0.4980778939792761</v>
       </c>
       <c r="BC26">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD26">
-        <v>-0.05108506150802327</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="BE26">
-        <v>-0.3219340808215441</v>
+        <v>-0.1260531091415177</v>
       </c>
       <c r="BF26">
-        <v>1.889214467654524</v>
+        <v>1.862068965517241</v>
       </c>
       <c r="BG26">
-        <v>0.9726288851199608</v>
+        <v>0.8226481081329319</v>
       </c>
       <c r="BH26">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BI26">
-        <v>0.517176697493157</v>
+        <v>1.1</v>
       </c>
       <c r="BJ26">
-        <v>1.529516994633274</v>
+        <v>1.47715534366309</v>
       </c>
       <c r="BK26">
-        <v>1.377072849202853</v>
+        <v>1.391724289320602</v>
       </c>
       <c r="BL26">
-        <v>2.068277362166025</v>
+        <v>1.8</v>
       </c>
       <c r="BM26">
-        <v>1.22506063362333</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="BN26">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS26">
-        <v>0.9963281872241825</v>
+        <v>0.9105898046528648</v>
       </c>
       <c r="BT26">
-        <v>-0.6956991109491374</v>
+        <v>-0.5565217391304348</v>
       </c>
       <c r="BU26">
         <v>0</v>
@@ -6807,16 +6807,16 @@
         <v>1</v>
       </c>
       <c r="BW26">
-        <v>-0.1872676292253673</v>
+        <v>-0.1417228464419476</v>
       </c>
       <c r="BX26">
-        <v>1.467529961661087</v>
+        <v>1.319509055454302</v>
       </c>
       <c r="BY26">
-        <v>-0.06879138192304211</v>
+        <v>-0.02600745724029036</v>
       </c>
       <c r="BZ26">
-        <v>1.07780137448347</v>
+        <v>0.729952831746111</v>
       </c>
       <c r="CA26">
         <v>0</v>
@@ -6830,25 +6830,25 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-1.106382978723404</v>
+        <v>-1.090909090909091</v>
       </c>
       <c r="D27">
-        <v>0.6261830059643346</v>
+        <v>0.5294117647058804</v>
       </c>
       <c r="E27">
-        <v>0.5336387701083175</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="F27">
-        <v>0.2240763490171422</v>
+        <v>0.5282253554377137</v>
       </c>
       <c r="G27">
-        <v>0.5650583194927068</v>
+        <v>0.5849056603773588</v>
       </c>
       <c r="H27">
-        <v>1.273646981407782</v>
+        <v>1.423076923076923</v>
       </c>
       <c r="I27">
-        <v>-0.4612061044222753</v>
+        <v>-0.5168539325842697</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6872,16 +6872,16 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>-1.073488096546386</v>
+        <v>-1.083969465648855</v>
       </c>
       <c r="R27">
-        <v>-0.569669539476925</v>
+        <v>-0.7</v>
       </c>
       <c r="S27">
-        <v>-1.124423292227191</v>
+        <v>-0.875</v>
       </c>
       <c r="T27">
-        <v>-0.6890705010232369</v>
+        <v>-0.6741573033707862</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6938,85 +6938,85 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>-0.08382501612295211</v>
+        <v>-0.0821256038647343</v>
       </c>
       <c r="AN27">
-        <v>-1.194318890289291</v>
+        <v>-0.8491620111731842</v>
       </c>
       <c r="AO27">
-        <v>-1.377873086737674</v>
+        <v>-1.100271002710028</v>
       </c>
       <c r="AP27">
-        <v>-1.600572512860569</v>
+        <v>-1.531914893617022</v>
       </c>
       <c r="AQ27">
-        <v>0.5939952678161025</v>
+        <v>0.7132352941176472</v>
       </c>
       <c r="AR27">
-        <v>0.05069415866173815</v>
+        <v>-0.04651162790697674</v>
       </c>
       <c r="AS27">
-        <v>-0.5232750329342629</v>
+        <v>-0.4098522167487685</v>
       </c>
       <c r="AT27">
-        <v>-0.06961734337663233</v>
+        <v>-0.2230483271375467</v>
       </c>
       <c r="AU27">
-        <v>0.1499093895563803</v>
+        <v>0.07076923076923113</v>
       </c>
       <c r="AV27">
-        <v>0.724621362944123</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="AW27">
-        <v>0.5366818419033978</v>
+        <v>0.4342331993107409</v>
       </c>
       <c r="AX27">
-        <v>2.847561839857098</v>
+        <v>2.117540413959812</v>
       </c>
       <c r="AY27">
-        <v>0.3411788951822873</v>
+        <v>0.36950146627566</v>
       </c>
       <c r="AZ27">
-        <v>-0.6451604493405303</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="BA27">
-        <v>-0.5378303194713488</v>
+        <v>-0.4660194174757282</v>
       </c>
       <c r="BB27">
-        <v>-0.9404544070452694</v>
+        <v>-0.9385907091091993</v>
       </c>
       <c r="BC27">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD27">
-        <v>-0.4086804920641862</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="BE27">
-        <v>-0.5411807828114662</v>
+        <v>-0.3292005034879587</v>
       </c>
       <c r="BF27">
-        <v>-0.6183665043953419</v>
+        <v>-0.7586206896551724</v>
       </c>
       <c r="BG27">
-        <v>-0.1855540340497413</v>
+        <v>-0.2452844733019066</v>
       </c>
       <c r="BH27">
-        <v>-1</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="BI27">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ27">
-        <v>-1.0304114490161</v>
+        <v>-0.7969805323798171</v>
       </c>
       <c r="BK27">
-        <v>-1.386088056071611</v>
+        <v>-1.299528043024916</v>
       </c>
       <c r="BL27">
-        <v>-0.6894257873886758</v>
+        <v>-0.6000000000000005</v>
       </c>
       <c r="BM27">
-        <v>-0.8167070890822185</v>
+        <v>-0.6666666666666662</v>
       </c>
       <c r="BN27">
         <v>-0.6666666666666666</v>
@@ -7034,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0.9528931461809936</v>
+        <v>0.870119146668293</v>
       </c>
       <c r="BT27">
-        <v>-0.5692083635038396</v>
+        <v>-0.4521739130434783</v>
       </c>
       <c r="BU27">
         <v>1</v>
@@ -7046,16 +7046,16 @@
         <v>1</v>
       </c>
       <c r="BW27">
-        <v>0.02366111632752262</v>
+        <v>0.07089138576779025</v>
       </c>
       <c r="BX27">
-        <v>1.228852173763404</v>
+        <v>1.092616573839232</v>
       </c>
       <c r="BY27">
-        <v>1.227775296512986</v>
+        <v>1.168212518079164</v>
       </c>
       <c r="BZ27">
-        <v>1.632754498311249</v>
+        <v>1.133134619619103</v>
       </c>
       <c r="CA27">
         <v>0</v>
@@ -7069,25 +7069,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-0.3404255319148936</v>
+        <v>-0.2727272727272727</v>
       </c>
       <c r="D28">
-        <v>0.5009464047714677</v>
+        <v>0.4117647058823511</v>
       </c>
       <c r="E28">
-        <v>-1.081270534938657</v>
+        <v>-0.7058823529411765</v>
       </c>
       <c r="F28">
-        <v>-1.275685446195021</v>
+        <v>-1.033788872088164</v>
       </c>
       <c r="G28">
-        <v>-1.033457365564306</v>
+        <v>-0.6226415094339618</v>
       </c>
       <c r="H28">
-        <v>-0.5458487063176208</v>
+        <v>-0.5</v>
       </c>
       <c r="I28">
-        <v>0.317431259438747</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -7111,16 +7111,16 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>-0.01511955065558291</v>
+        <v>-0.01526717557251908</v>
       </c>
       <c r="R28">
-        <v>-0.2034534069560447</v>
+        <v>-0.25</v>
       </c>
       <c r="S28">
-        <v>0.01709872308228715</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>-0.007252319205055133</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -7177,85 +7177,85 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>1.786281307661857</v>
+        <v>2.217391304347826</v>
       </c>
       <c r="AN28">
-        <v>0.7493545602351602</v>
+        <v>0.685288640595903</v>
       </c>
       <c r="AO28">
-        <v>0.8436429028231865</v>
+        <v>0.9485094850948516</v>
       </c>
       <c r="AP28">
-        <v>-0.2223017378973013</v>
+        <v>-0.2127659574468087</v>
       </c>
       <c r="AQ28">
-        <v>0.1931344809844865</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="AR28">
-        <v>-0.354859110632167</v>
+        <v>-0.4186046511627907</v>
       </c>
       <c r="AS28">
-        <v>0.05105286979612948</v>
+        <v>0.1221674876847289</v>
       </c>
       <c r="AT28">
-        <v>-0.7305792335187533</v>
+        <v>-0.877323420074351</v>
       </c>
       <c r="AU28">
-        <v>-0.5157577768604119</v>
+        <v>-0.6123076923076924</v>
       </c>
       <c r="AV28">
-        <v>0.724621362944123</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="AW28">
-        <v>0.05819441659193471</v>
+        <v>0.009190120620333109</v>
       </c>
       <c r="AX28">
-        <v>0.9270051607484373</v>
+        <v>0.7149116180691947</v>
       </c>
       <c r="AY28">
-        <v>0.4561948696231817</v>
+        <v>0.4750733137829912</v>
       </c>
       <c r="AZ28">
-        <v>0.6048395506594714</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="BA28">
-        <v>0.2856616339461617</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="BB28">
-        <v>0.7542658493605094</v>
+        <v>0.6879199480417569</v>
       </c>
       <c r="BC28">
-        <v>-0.2524531518563355</v>
+        <v>0</v>
       </c>
       <c r="BD28">
-        <v>-0.4086804920641862</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="BE28">
-        <v>-0.110920895912447</v>
+        <v>0.06946535612140439</v>
       </c>
       <c r="BF28">
-        <v>0.8333909004756334</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="BG28">
-        <v>0.781801724244358</v>
+        <v>0.6466909780900708</v>
       </c>
       <c r="BH28">
-        <v>-0.7500000000000009</v>
+        <v>-0.5000000000000008</v>
       </c>
       <c r="BI28">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ28">
-        <v>-0.3685152057245081</v>
+        <v>-0.208978943186333</v>
       </c>
       <c r="BK28">
-        <v>0.1464971116173248</v>
+        <v>0.1931730874766763</v>
       </c>
       <c r="BL28">
         <v>0</v>
       </c>
       <c r="BM28">
-        <v>0.8167070890822202</v>
+        <v>0.6666666666666676</v>
       </c>
       <c r="BN28">
         <v>0</v>
@@ -7270,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS28">
-        <v>0.3013675305331601</v>
+        <v>0.2630592768997165</v>
       </c>
       <c r="BT28">
-        <v>-0.1054089562044147</v>
+        <v>-0.06956521739130435</v>
       </c>
       <c r="BU28">
         <v>1</v>
@@ -7285,16 +7285,16 @@
         <v>1</v>
       </c>
       <c r="BW28">
-        <v>2.002871882096071</v>
+        <v>2.065917602996254</v>
       </c>
       <c r="BX28">
-        <v>0.275629958672471</v>
+        <v>0.1864620639553409</v>
       </c>
       <c r="BY28">
-        <v>6.264216527415604</v>
+        <v>5.807093666653397</v>
       </c>
       <c r="BZ28">
-        <v>-0.8518803769708767</v>
+        <v>-0.6719899723792585</v>
       </c>
       <c r="CA28">
         <v>1</v>
@@ -7308,25 +7308,25 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.9361702127659575</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="D29">
-        <v>-0.2504732023857338</v>
+        <v>-0.2941176470588244</v>
       </c>
       <c r="E29">
-        <v>-1.081270534938657</v>
+        <v>-0.7058823529411765</v>
       </c>
       <c r="F29">
-        <v>-0.9952934367069131</v>
+        <v>-0.7417582912964739</v>
       </c>
       <c r="G29">
-        <v>-1.183318211038402</v>
+        <v>-0.7358490566037732</v>
       </c>
       <c r="H29">
-        <v>0.1819495687725403</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="I29">
-        <v>0.1342224679420359</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -7350,16 +7350,16 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>-0.6199015768788992</v>
+        <v>-0.6259541984732825</v>
       </c>
       <c r="R29">
-        <v>-0.4069068139120893</v>
+        <v>-0.5</v>
       </c>
       <c r="S29">
-        <v>0.01709872308228715</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>-0.007252319205055133</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -7416,85 +7416,85 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-0.2174040392504385</v>
+        <v>-0.2463768115942029</v>
       </c>
       <c r="AN29">
-        <v>0.5229071679410492</v>
+        <v>0.5065176908752325</v>
       </c>
       <c r="AO29">
-        <v>0.1619078372436633</v>
+        <v>0.3197831978319784</v>
       </c>
       <c r="AP29">
-        <v>-1.155969037065966</v>
+        <v>-1.106382978723404</v>
       </c>
       <c r="AQ29">
-        <v>1.708889331191534</v>
+        <v>2.022058823529412</v>
       </c>
       <c r="AR29">
-        <v>0.05069415866173815</v>
+        <v>-0.04651162790697674</v>
       </c>
       <c r="AS29">
-        <v>0.2254783809957303</v>
+        <v>0.283743842364532</v>
       </c>
       <c r="AT29">
-        <v>0.4110822130903635</v>
+        <v>0.2527881040892189</v>
       </c>
       <c r="AU29">
-        <v>0.3358164360331416</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="AV29">
-        <v>0.3354330541858883</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="AW29">
-        <v>-0.5599596085401717</v>
+        <v>-0.5399195864445721</v>
       </c>
       <c r="AX29">
-        <v>-0.4316997367510981</v>
+        <v>-0.27738329052727</v>
       </c>
       <c r="AY29">
-        <v>-0.8600990600892783</v>
+        <v>-0.733137829912023</v>
       </c>
       <c r="AZ29">
-        <v>-0.8951604493405297</v>
+        <v>-0.7500000000000006</v>
       </c>
       <c r="BA29">
-        <v>-0.7249875816116922</v>
+        <v>-0.6601941747572816</v>
       </c>
       <c r="BB29">
-        <v>-0.3711138338955109</v>
+        <v>-0.3921651227764495</v>
       </c>
       <c r="BC29">
-        <v>-1.852453151856336</v>
+        <v>-1.523809523809525</v>
       </c>
       <c r="BD29">
-        <v>-1.685807029764768</v>
+        <v>-1.36</v>
       </c>
       <c r="BE29">
-        <v>-1.42338369616436</v>
+        <v>-1.146623167116976</v>
       </c>
       <c r="BF29">
-        <v>0.7014129545782719</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="BG29">
-        <v>2.311811890937231</v>
+        <v>2.057476511094857</v>
       </c>
       <c r="BH29">
         <v>0</v>
       </c>
       <c r="BI29">
-        <v>1.034353394986313</v>
+        <v>1.2</v>
       </c>
       <c r="BJ29">
-        <v>-0.05366726296958857</v>
+        <v>0.07071911005164859</v>
       </c>
       <c r="BK29">
-        <v>0.6738867134396941</v>
+        <v>0.7068378882669302</v>
       </c>
       <c r="BL29">
-        <v>-0.4596171915924505</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BM29">
-        <v>-1.633414178164439</v>
+        <v>-1.333333333333334</v>
       </c>
       <c r="BN29">
         <v>0.6666666666666666</v>
@@ -7509,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>-0.5937803991362425</v>
+        <v>-0.5</v>
       </c>
       <c r="BS29">
-        <v>0.3013675305331601</v>
+        <v>0.2630592768997165</v>
       </c>
       <c r="BT29">
-        <v>-0.02108179124088295</v>
+        <v>0</v>
       </c>
       <c r="BU29">
         <v>0</v>
@@ -7524,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="BW29">
-        <v>-0.3646665516407629</v>
+        <v>-0.3205393258426967</v>
       </c>
       <c r="BX29">
-        <v>-0.4672093165309851</v>
+        <v>-0.5196976841997936</v>
       </c>
       <c r="BY29">
-        <v>-0.1471040093005783</v>
+        <v>-0.09813834374958538</v>
       </c>
       <c r="BZ29">
-        <v>0.6527941881121498</v>
+        <v>0.4211787211002609</v>
       </c>
       <c r="CA29">
         <v>0</v>
@@ -7547,25 +7547,25 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.425531914893617</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D30">
-        <v>-1.001892809542935</v>
+        <v>-1</v>
       </c>
       <c r="E30">
-        <v>-1.081270534938657</v>
+        <v>-0.7058823529411765</v>
       </c>
       <c r="F30">
-        <v>-0.6835669961020596</v>
+        <v>-0.4170926431413951</v>
       </c>
       <c r="G30">
-        <v>-1.882668823250846</v>
+        <v>-1.264150943396227</v>
       </c>
       <c r="H30">
-        <v>1.055307498880734</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="I30">
-        <v>0.3632334573129248</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -7589,16 +7589,16 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>-0.9525316913017232</v>
+        <v>-0.9618320610687023</v>
       </c>
       <c r="R30">
-        <v>-0.4882881766945071</v>
+        <v>-0.6</v>
       </c>
       <c r="S30">
-        <v>1.077083451583946</v>
+        <v>0.8125</v>
       </c>
       <c r="T30">
-        <v>0.6291113171585815</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -7655,85 +7655,85 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-0.1702585016760315</v>
+        <v>-0.1884057971014493</v>
       </c>
       <c r="AN30">
-        <v>1.268296500909164</v>
+        <v>1.094972067039106</v>
       </c>
       <c r="AO30">
-        <v>1.161002329903309</v>
+        <v>1.24119241192412</v>
       </c>
       <c r="AP30">
-        <v>0.5335241709535222</v>
+        <v>0.5106382978723399</v>
       </c>
       <c r="AQ30">
-        <v>0.5063069706966864</v>
+        <v>0.6102941176470589</v>
       </c>
       <c r="AR30">
-        <v>-0.9124948559112867</v>
+        <v>-0.9302325581395349</v>
       </c>
       <c r="AS30">
-        <v>1.757019454943444</v>
+        <v>1.702463054187193</v>
       </c>
       <c r="AT30">
-        <v>-0.7155573723791594</v>
+        <v>-0.8624535315985143</v>
       </c>
       <c r="AU30">
-        <v>-1.235397956770457</v>
+        <v>-1.350769230769231</v>
       </c>
       <c r="AV30">
-        <v>0.2705683360595158</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="AW30">
-        <v>0.800496530453502</v>
+        <v>0.6685812751292362</v>
       </c>
       <c r="AX30">
-        <v>-0.2918573934639961</v>
+        <v>-0.1752530593745278</v>
       </c>
       <c r="AY30">
-        <v>-0.5533897949135594</v>
+        <v>-0.4516129032258062</v>
       </c>
       <c r="AZ30">
-        <v>-0.6451604493405303</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="BA30">
-        <v>-0.5003988670432802</v>
+        <v>-0.4271844660194175</v>
       </c>
       <c r="BB30">
-        <v>0.3163982231585698</v>
+        <v>0.2676757468251522</v>
       </c>
       <c r="BC30">
-        <v>-0.8524531518563361</v>
+        <v>-0.5714285714285721</v>
       </c>
       <c r="BD30">
-        <v>-0.9706161686524422</v>
+        <v>-0.6133333333333333</v>
       </c>
       <c r="BE30">
-        <v>-0.4640484543169036</v>
+        <v>-0.2577320097257839</v>
       </c>
       <c r="BF30">
-        <v>0.1735011709888264</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="BG30">
-        <v>1.020615155816546</v>
+        <v>0.866895092862402</v>
       </c>
       <c r="BH30">
         <v>0</v>
       </c>
       <c r="BI30">
-        <v>-0.5171766974931564</v>
+        <v>0.9</v>
       </c>
       <c r="BJ30">
-        <v>-0.6028622540250448</v>
+        <v>-0.4171632896305124</v>
       </c>
       <c r="BK30">
-        <v>0.3132784386893562</v>
+        <v>0.3556140928547908</v>
       </c>
       <c r="BL30">
         <v>0</v>
       </c>
       <c r="BM30">
-        <v>0.8167070890822202</v>
+        <v>0.6666666666666676</v>
       </c>
       <c r="BN30">
         <v>-0.3333333333333333</v>
@@ -7748,13 +7748,13 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>-0.2968901995681212</v>
+        <v>-0.25</v>
       </c>
       <c r="BS30">
-        <v>-0.4370281672010512</v>
+        <v>-0.4249419088380036</v>
       </c>
       <c r="BT30">
-        <v>-0.400554033576776</v>
+        <v>-0.3130434782608696</v>
       </c>
       <c r="BU30">
         <v>0</v>
@@ -7763,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="BW30">
-        <v>-0.2633636817359927</v>
+        <v>-0.2184269662921348</v>
       </c>
       <c r="BX30">
-        <v>-0.5454805450737021</v>
+        <v>-0.5941040771848434</v>
       </c>
       <c r="BY30">
-        <v>-0.3714964824485735</v>
+        <v>-0.3048180141448722</v>
       </c>
       <c r="BZ30">
-        <v>-0.8915849956976711</v>
+        <v>-0.7008359748211734</v>
       </c>
       <c r="CA30">
         <v>0</v>
